--- a/etf_dfs/EIS.xlsx
+++ b/etf_dfs/EIS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EIS</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>39508</v>
       </c>
@@ -456,13 +462,13 @@
         <v>49.06999969482422</v>
       </c>
       <c r="F2">
-        <v>37.21850967407227</v>
+        <v>37.21851348876953</v>
       </c>
       <c r="G2">
         <v>27000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>39539</v>
       </c>
@@ -488,7 +494,7 @@
         <v>0.1037293699662438</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>39569</v>
       </c>
@@ -505,7 +511,7 @@
         <v>58.61000061035156</v>
       </c>
       <c r="F4">
-        <v>44.45438766479492</v>
+        <v>44.45438385009766</v>
       </c>
       <c r="G4">
         <v>40900</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.08216397295931843</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.01524903846257702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>39600</v>
       </c>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.06244667819992633</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.09036203642468113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>39630</v>
       </c>
@@ -557,7 +569,7 @@
         <v>49.95999908447266</v>
       </c>
       <c r="F6">
-        <v>37.89355850219727</v>
+        <v>37.89356231689453</v>
       </c>
       <c r="G6">
         <v>55700</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.09080985640007966</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.09897883270215231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>39661</v>
       </c>
@@ -583,7 +598,7 @@
         <v>47.93999862670898</v>
       </c>
       <c r="F7">
-        <v>36.36142349243164</v>
+        <v>36.36143112182617</v>
       </c>
       <c r="G7">
         <v>44300</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.04043235578023618</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.08842983032548704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>39692</v>
       </c>
@@ -609,7 +627,7 @@
         <v>43.54000091552734</v>
       </c>
       <c r="F8">
-        <v>33.02412796020508</v>
+        <v>33.02413558959961</v>
       </c>
       <c r="G8">
         <v>59800</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>-0.09178134829420403</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.08724989002224891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>39722</v>
       </c>
@@ -635,7 +656,7 @@
         <v>35.45000076293945</v>
       </c>
       <c r="F9">
-        <v>26.88803863525391</v>
+        <v>26.8880443572998</v>
       </c>
       <c r="G9">
         <v>47000</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>-0.1858061548570803</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.102147322612789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>39753</v>
       </c>
@@ -661,7 +685,7 @@
         <v>31.18000030517578</v>
       </c>
       <c r="F10">
-        <v>23.64933967590332</v>
+        <v>23.64933776855469</v>
       </c>
       <c r="G10">
         <v>2200</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>-0.1204513502360108</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.09867701238702903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>39783</v>
       </c>
@@ -687,7 +714,7 @@
         <v>30.5</v>
       </c>
       <c r="F11">
-        <v>23.69333648681641</v>
+        <v>23.69333076477051</v>
       </c>
       <c r="G11">
         <v>32400</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.02180886140218874</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.09280593244155166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>39814</v>
       </c>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.0121311750568327</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.08821085899538507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>39845</v>
       </c>
@@ -739,7 +772,7 @@
         <v>30.52000045776367</v>
       </c>
       <c r="F13">
-        <v>23.7088737487793</v>
+        <v>23.70886611938477</v>
       </c>
       <c r="G13">
         <v>17400</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.01294395313176455</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.08542593086372467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>39873</v>
       </c>
@@ -765,7 +801,7 @@
         <v>33.15999984741211</v>
       </c>
       <c r="F14">
-        <v>25.75970458984375</v>
+        <v>25.75970077514648</v>
       </c>
       <c r="G14">
         <v>18900</v>
@@ -774,13 +810,16 @@
         <v>0.08650063401217523</v>
       </c>
       <c r="I14">
-        <v>-0.3242306897566632</v>
+        <v>0.08912117801105825</v>
       </c>
       <c r="J14">
         <v>-0.3242306897566632</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-0.3242306897566632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>39904</v>
       </c>
@@ -797,7 +836,7 @@
         <v>35.97999954223633</v>
       </c>
       <c r="F15">
-        <v>27.95036125183105</v>
+        <v>27.95036315917969</v>
       </c>
       <c r="G15">
         <v>18400</v>
@@ -806,13 +845,16 @@
         <v>0.08504221072981388</v>
       </c>
       <c r="I15">
-        <v>-0.335672089298288</v>
+        <v>0.09093927728087636</v>
       </c>
       <c r="J15">
         <v>-0.335672089298288</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-0.335672089298288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>39934</v>
       </c>
@@ -829,7 +871,7 @@
         <v>40.97000122070312</v>
       </c>
       <c r="F16">
-        <v>31.82675361633301</v>
+        <v>31.82675743103027</v>
       </c>
       <c r="G16">
         <v>44500</v>
@@ -838,13 +880,16 @@
         <v>0.1386882085034247</v>
       </c>
       <c r="I16">
-        <v>-0.3009725167368946</v>
+        <v>0.09707885645350063</v>
       </c>
       <c r="J16">
         <v>-0.3009725167368946</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-0.3009725167368946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>39965</v>
       </c>
@@ -861,7 +906,7 @@
         <v>41.31000137329102</v>
       </c>
       <c r="F17">
-        <v>32.30042266845703</v>
+        <v>32.30043029785156</v>
       </c>
       <c r="G17">
         <v>19500</v>
@@ -870,13 +915,16 @@
         <v>0.008298758663840999</v>
       </c>
       <c r="I17">
-        <v>-0.2482256451368026</v>
+        <v>0.09364598704370615</v>
       </c>
       <c r="J17">
         <v>-0.2482256451368026</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>-0.2482256451368026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>39995</v>
       </c>
@@ -893,7 +941,7 @@
         <v>47.29999923706055</v>
       </c>
       <c r="F18">
-        <v>36.98402786254883</v>
+        <v>36.98403549194336</v>
       </c>
       <c r="G18">
         <v>23900</v>
@@ -902,13 +950,16 @@
         <v>0.1450011538281468</v>
       </c>
       <c r="I18">
-        <v>-0.05324259199674053</v>
+        <v>0.09814855405157</v>
       </c>
       <c r="J18">
         <v>-0.05324259199674053</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>-0.05324259199674053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>40026</v>
       </c>
@@ -925,7 +976,7 @@
         <v>46.81000137329102</v>
       </c>
       <c r="F19">
-        <v>36.60089111328125</v>
+        <v>36.60089492797852</v>
       </c>
       <c r="G19">
         <v>82600</v>
@@ -934,13 +985,16 @@
         <v>-0.01035936303748619</v>
       </c>
       <c r="I19">
-        <v>-0.02357107396303526</v>
+        <v>0.09508146645143151</v>
       </c>
       <c r="J19">
         <v>-0.02357107396303526</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>-0.02357107396303526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>40057</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>48.90999984741211</v>
       </c>
       <c r="F20">
-        <v>38.24289321899414</v>
+        <v>38.24290084838867</v>
       </c>
       <c r="G20">
         <v>58200</v>
@@ -966,13 +1020,16 @@
         <v>0.04486217501628431</v>
       </c>
       <c r="I20">
-        <v>0.1233348373672105</v>
+        <v>0.09280578465375255</v>
       </c>
       <c r="J20">
         <v>0.1233348373672105</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.1233348373672105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>40087</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>49.31999969482422</v>
       </c>
       <c r="F21">
-        <v>38.56347274780273</v>
+        <v>38.56346893310547</v>
       </c>
       <c r="G21">
         <v>41300</v>
@@ -998,13 +1055,16 @@
         <v>0.008382740721554205</v>
       </c>
       <c r="I21">
-        <v>0.3912552505890183</v>
+        <v>0.09019672917349957</v>
       </c>
       <c r="J21">
         <v>0.3912552505890183</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.3912552505890183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>40118</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>52.15999984741211</v>
       </c>
       <c r="F22">
-        <v>40.78408432006836</v>
+        <v>40.78407287597656</v>
       </c>
       <c r="G22">
         <v>30800</v>
@@ -1030,13 +1090,16 @@
         <v>0.05758313402597048</v>
       </c>
       <c r="I22">
-        <v>0.6728672013115315</v>
+        <v>0.08859918989468052</v>
       </c>
       <c r="J22">
         <v>0.6728672013115315</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.6728672013115315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>40148</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>54.40000152587891</v>
       </c>
       <c r="F23">
-        <v>42.95086288452148</v>
+        <v>42.95085906982422</v>
       </c>
       <c r="G23">
         <v>22500</v>
@@ -1062,13 +1125,16 @@
         <v>0.04294481758089841</v>
       </c>
       <c r="I23">
-        <v>0.7836066074058659</v>
+        <v>0.0867141070236923</v>
       </c>
       <c r="J23">
         <v>0.7836066074058659</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.7836066074058659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>40179</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>54</v>
       </c>
       <c r="F24">
-        <v>42.63504409790039</v>
+        <v>42.63504791259766</v>
       </c>
       <c r="G24">
         <v>50000</v>
@@ -1094,13 +1160,16 @@
         <v>-0.007352969019469913</v>
       </c>
       <c r="I24">
-        <v>0.7922337040857079</v>
+        <v>0.08469242726674754</v>
       </c>
       <c r="J24">
         <v>0.7922337040857079</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.7922337040857079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>40210</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>55.90999984741211</v>
       </c>
       <c r="F25">
-        <v>44.14306259155273</v>
+        <v>44.14306640625</v>
       </c>
       <c r="G25">
         <v>284500</v>
@@ -1126,13 +1195,16 @@
         <v>0.0353703675446686</v>
       </c>
       <c r="I25">
-        <v>0.8319134668685673</v>
+        <v>0.08294391517613105</v>
       </c>
       <c r="J25">
         <v>0.8319134668685673</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.8319134668685673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>40238</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>58.86000061035156</v>
       </c>
       <c r="F26">
-        <v>46.47220611572266</v>
+        <v>46.47220230102539</v>
       </c>
       <c r="G26">
         <v>112900</v>
@@ -1158,13 +1230,16 @@
         <v>0.05276338349115561</v>
       </c>
       <c r="I26">
-        <v>0.7750301833896163</v>
+        <v>0.08161003667268577</v>
       </c>
       <c r="J26">
         <v>0.7750301833896163</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.7750301833896163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>40269</v>
       </c>
@@ -1190,13 +1265,16 @@
         <v>-0.0654094843509273</v>
       </c>
       <c r="I27">
-        <v>0.5289049199947284</v>
+        <v>0.08133533043168677</v>
       </c>
       <c r="J27">
         <v>0.5289049199947284</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.5289049199947284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>40299</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>50.45000076293945</v>
       </c>
       <c r="F28">
-        <v>39.83218383789062</v>
+        <v>39.83218765258789</v>
       </c>
       <c r="G28">
         <v>203500</v>
@@ -1222,13 +1300,16 @@
         <v>-0.08289397741735205</v>
       </c>
       <c r="I28">
-        <v>0.2313888030212179</v>
+        <v>0.08165363077138071</v>
       </c>
       <c r="J28">
         <v>0.2313888030212179</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.2313888030212179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>40330</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>45.56999969482422</v>
       </c>
       <c r="F29">
-        <v>36.69574356079102</v>
+        <v>36.69573593139648</v>
       </c>
       <c r="G29">
         <v>129500</v>
@@ -1254,13 +1335,16 @@
         <v>-0.09672945479319162</v>
       </c>
       <c r="I29">
-        <v>0.1031226865145423</v>
+        <v>0.08239625732204089</v>
       </c>
       <c r="J29">
         <v>0.1031226865145423</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.1031226865145423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>40360</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>48.40999984741211</v>
       </c>
       <c r="F30">
-        <v>38.98268890380859</v>
+        <v>38.9826774597168</v>
       </c>
       <c r="G30">
         <v>277700</v>
@@ -1286,13 +1370,16 @@
         <v>0.06232170664048642</v>
       </c>
       <c r="I30">
-        <v>0.02346724372633502</v>
+        <v>0.08169335793189429</v>
       </c>
       <c r="J30">
         <v>0.02346724372633502</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.02346724372633502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>40391</v>
       </c>
@@ -1318,13 +1405,16 @@
         <v>0.02168971783454121</v>
       </c>
       <c r="I31">
-        <v>0.05661178452119597</v>
+        <v>0.08029800010687424</v>
       </c>
       <c r="J31">
         <v>0.05661178452119597</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.05661178452119597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>40422</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>54.90999984741211</v>
       </c>
       <c r="F32">
-        <v>44.21687316894531</v>
+        <v>44.21688461303711</v>
       </c>
       <c r="G32">
         <v>51700</v>
@@ -1350,13 +1440,16 @@
         <v>0.1101900700327836</v>
       </c>
       <c r="I32">
-        <v>0.122674300116921</v>
+        <v>0.08127273066251786</v>
       </c>
       <c r="J32">
         <v>0.122674300116921</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.122674300116921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>40452</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>56.97000122070312</v>
       </c>
       <c r="F33">
-        <v>45.87571334838867</v>
+        <v>45.87572479248047</v>
       </c>
       <c r="G33">
         <v>29400</v>
@@ -1382,13 +1475,16 @@
         <v>0.03751596028074111</v>
       </c>
       <c r="I33">
-        <v>0.1551095209492006</v>
+        <v>0.08009442456150481</v>
       </c>
       <c r="J33">
         <v>0.1551095209492006</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.1551095209492006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>40483</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>55.59000015258789</v>
       </c>
       <c r="F34">
-        <v>44.76445388793945</v>
+        <v>44.76445007324219</v>
       </c>
       <c r="G34">
         <v>22500</v>
@@ -1414,13 +1510,16 @@
         <v>-0.02422329363780562</v>
       </c>
       <c r="I34">
-        <v>0.06575920849712125</v>
+        <v>0.07899745826906042</v>
       </c>
       <c r="J34">
         <v>0.06575920849712125</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.06575920849712125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>40513</v>
       </c>
@@ -1446,13 +1545,16 @@
         <v>0.08868502053685057</v>
       </c>
       <c r="I35">
-        <v>0.1124999772099895</v>
+        <v>0.07904349804747125</v>
       </c>
       <c r="J35">
         <v>0.1124999772099895</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.1124999772099895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>40544</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>56.90999984741211</v>
       </c>
       <c r="F36">
-        <v>46.57131958007812</v>
+        <v>46.57131195068359</v>
       </c>
       <c r="G36">
         <v>67500</v>
@@ -1478,13 +1580,16 @@
         <v>-0.05964971221160098</v>
       </c>
       <c r="I36">
-        <v>0.0538888860631872</v>
+        <v>0.07873374753043852</v>
       </c>
       <c r="J36">
         <v>0.0538888860631872</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.0538888860631872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>40575</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>56.72000122070312</v>
       </c>
       <c r="F37">
-        <v>46.41582870483398</v>
+        <v>46.41583251953125</v>
       </c>
       <c r="G37">
         <v>18100</v>
@@ -1510,13 +1615,16 @@
         <v>-0.003338580692644699</v>
       </c>
       <c r="I37">
-        <v>0.01448759390988452</v>
+        <v>0.07758858456318871</v>
       </c>
       <c r="J37">
         <v>0.01448759390988452</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.01448759390988452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>40603</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>59.06999969482422</v>
       </c>
       <c r="F38">
-        <v>48.33891296386719</v>
+        <v>48.33892440795898</v>
       </c>
       <c r="G38">
         <v>13100</v>
@@ -1542,13 +1650,16 @@
         <v>0.04143156600044873</v>
       </c>
       <c r="I38">
-        <v>0.003567772380140388</v>
+        <v>0.07668571657237087</v>
       </c>
       <c r="J38">
         <v>0.003567772380140388</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.003567772380140388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>40634</v>
       </c>
@@ -1574,13 +1685,16 @@
         <v>0.003047237279595771</v>
       </c>
       <c r="I39">
-        <v>0.07707692797378396</v>
+        <v>0.07561764308223666</v>
       </c>
       <c r="J39">
         <v>0.07707692797378396</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.07707692797378396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>40664</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>57.20999908447266</v>
       </c>
       <c r="F40">
-        <v>46.81680297851562</v>
+        <v>46.81680679321289</v>
       </c>
       <c r="G40">
         <v>21000</v>
@@ -1606,13 +1720,16 @@
         <v>-0.03443039519877378</v>
       </c>
       <c r="I40">
-        <v>0.1339940182220789</v>
+        <v>0.07490470684336727</v>
       </c>
       <c r="J40">
         <v>0.1339940182220789</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.1339940182220789</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>40695</v>
       </c>
@@ -1638,13 +1755,16 @@
         <v>-0.04264986306163432</v>
       </c>
       <c r="I41">
-        <v>0.2018872245896544</v>
+        <v>0.07433580043085387</v>
       </c>
       <c r="J41">
         <v>0.2018872245896544</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.2018872245896544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>40725</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>53.45000076293945</v>
       </c>
       <c r="F42">
-        <v>44.37097549438477</v>
+        <v>44.37097930908203</v>
       </c>
       <c r="G42">
         <v>121000</v>
@@ -1670,13 +1790,16 @@
         <v>-0.02410077932794885</v>
       </c>
       <c r="I42">
-        <v>0.1041107401655315</v>
+        <v>0.07352620638311161</v>
       </c>
       <c r="J42">
         <v>0.1041107401655315</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.1041107401655315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>40756</v>
       </c>
@@ -1702,13 +1825,16 @@
         <v>-0.142376061772259</v>
       </c>
       <c r="I43">
-        <v>-0.07319043669414904</v>
+        <v>0.07615330189449983</v>
       </c>
       <c r="J43">
         <v>-0.07319043669414904</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>-0.07319043669414904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>40787</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>40.13999938964844</v>
       </c>
       <c r="F44">
-        <v>33.32182693481445</v>
+        <v>33.32181549072266</v>
       </c>
       <c r="G44">
         <v>40300</v>
@@ -1734,13 +1860,16 @@
         <v>-0.1243455659678409</v>
       </c>
       <c r="I44">
-        <v>-0.2689856219050741</v>
+        <v>0.07767412487085879</v>
       </c>
       <c r="J44">
         <v>-0.2689856219050741</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>-0.2689856219050741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>40817</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>44.81999969482422</v>
       </c>
       <c r="F45">
-        <v>37.20685958862305</v>
+        <v>37.20686721801758</v>
       </c>
       <c r="G45">
         <v>11000</v>
@@ -1766,13 +1895,16 @@
         <v>0.1165919376267526</v>
       </c>
       <c r="I45">
-        <v>-0.2132701643942312</v>
+        <v>0.07883798528752484</v>
       </c>
       <c r="J45">
         <v>-0.2132701643942312</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.2132701643942312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>40848</v>
       </c>
@@ -1798,13 +1930,16 @@
         <v>-0.0785363784411216</v>
       </c>
       <c r="I46">
-        <v>-0.2570606381777838</v>
+        <v>0.07883267799018517</v>
       </c>
       <c r="J46">
         <v>-0.2570606381777838</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.2570606381777838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>40878</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>39.56000137329102</v>
       </c>
       <c r="F47">
-        <v>33.3357048034668</v>
+        <v>33.33570098876953</v>
       </c>
       <c r="G47">
         <v>17200</v>
@@ -1830,13 +1965,16 @@
         <v>-0.04213069965890326</v>
       </c>
       <c r="I47">
-        <v>-0.3463317733961426</v>
+        <v>0.07817457673384527</v>
       </c>
       <c r="J47">
         <v>-0.3463317733961426</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.3463317733961426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>40909</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>42.18999862670898</v>
       </c>
       <c r="F48">
-        <v>35.5518913269043</v>
+        <v>35.55188751220703</v>
       </c>
       <c r="G48">
         <v>10400</v>
@@ -1862,13 +2000,16 @@
         <v>0.06648122250050315</v>
       </c>
       <c r="I48">
-        <v>-0.2586540372547987</v>
+        <v>0.07795283871719823</v>
       </c>
       <c r="J48">
         <v>-0.2586540372547987</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.2586540372547987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>40940</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>40.59999847412109</v>
       </c>
       <c r="F49">
-        <v>34.21207427978516</v>
+        <v>34.21207809448242</v>
       </c>
       <c r="G49">
         <v>658500</v>
@@ -1894,13 +2035,16 @@
         <v>-0.03768666044898417</v>
       </c>
       <c r="I49">
-        <v>-0.2842031452689415</v>
+        <v>0.07729390147955302</v>
       </c>
       <c r="J49">
         <v>-0.2842031452689415</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.2842031452689415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>40969</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>43.06999969482422</v>
       </c>
       <c r="F50">
-        <v>36.29343795776367</v>
+        <v>36.2934455871582</v>
       </c>
       <c r="G50">
         <v>4700</v>
@@ -1926,13 +2070,16 @@
         <v>0.06083747077669299</v>
       </c>
       <c r="I50">
-        <v>-0.2708650767337305</v>
+        <v>0.07698729041746055</v>
       </c>
       <c r="J50">
         <v>-0.2708650767337305</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.2708650767337305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>41000</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>43.65999984741211</v>
       </c>
       <c r="F51">
-        <v>36.79061889648438</v>
+        <v>36.79061508178711</v>
       </c>
       <c r="G51">
         <v>80000</v>
@@ -1958,13 +2105,16 @@
         <v>0.01369863377683722</v>
       </c>
       <c r="I51">
-        <v>-0.2631223654445214</v>
+        <v>0.07620540191349146</v>
       </c>
       <c r="J51">
         <v>-0.2631223654445214</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.2631223654445214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>41030</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>37.83000183105469</v>
       </c>
       <c r="F52">
-        <v>31.87790107727051</v>
+        <v>31.87789916992188</v>
       </c>
       <c r="G52">
         <v>29300</v>
@@ -1990,13 +2140,16 @@
         <v>-0.1335317919544836</v>
       </c>
       <c r="I52">
-        <v>-0.3387519238516801</v>
+        <v>0.07776940393913007</v>
       </c>
       <c r="J52">
         <v>-0.3387519238516801</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.3387519238516801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>41061</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>36.79999923706055</v>
       </c>
       <c r="F53">
-        <v>31.43024253845215</v>
+        <v>31.43025016784668</v>
       </c>
       <c r="G53">
         <v>39300</v>
@@ -2022,13 +2175,16 @@
         <v>-0.02722713571609214</v>
       </c>
       <c r="I53">
-        <v>-0.3280993439932658</v>
+        <v>0.07706767591055613</v>
       </c>
       <c r="J53">
         <v>-0.3280993439932658</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.3280993439932658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>41091</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>37.04000091552734</v>
       </c>
       <c r="F54">
-        <v>31.63521957397461</v>
+        <v>31.63522911071777</v>
       </c>
       <c r="G54">
         <v>8600</v>
@@ -2054,13 +2210,16 @@
         <v>0.006521784876155623</v>
       </c>
       <c r="I54">
-        <v>-0.3070158954757263</v>
+        <v>0.07631900197792967</v>
       </c>
       <c r="J54">
         <v>-0.3070158954757263</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.3070158954757263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>41122</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>36.97999954223633</v>
       </c>
       <c r="F55">
-        <v>31.5839786529541</v>
+        <v>31.58398056030273</v>
       </c>
       <c r="G55">
         <v>19100</v>
@@ -2086,13 +2245,16 @@
         <v>-0.001619907446218871</v>
       </c>
       <c r="I55">
-        <v>-0.1932809899838399</v>
+        <v>0.07558169698724969</v>
       </c>
       <c r="J55">
         <v>-0.1932809899838399</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.1932809899838399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>41153</v>
       </c>
@@ -2118,13 +2280,16 @@
         <v>0.094645755633461</v>
       </c>
       <c r="I56">
-        <v>0.008470357692022645</v>
+        <v>0.07602282059129481</v>
       </c>
       <c r="J56">
         <v>0.008470357692022645</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0.008470357692022645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>41183</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>41.59000015258789</v>
       </c>
       <c r="F57">
-        <v>35.52129364013672</v>
+        <v>35.52130126953125</v>
       </c>
       <c r="G57">
         <v>43700</v>
@@ -2150,13 +2315,16 @@
         <v>0.02742096400454264</v>
       </c>
       <c r="I57">
-        <v>-0.07206603222287233</v>
+        <v>0.07541082239896679</v>
       </c>
       <c r="J57">
         <v>-0.07206603222287233</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.07206603222287233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>41214</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>43.0099983215332</v>
       </c>
       <c r="F58">
-        <v>36.73410034179688</v>
+        <v>36.73410415649414</v>
       </c>
       <c r="G58">
         <v>28700</v>
@@ -2182,13 +2350,16 @@
         <v>0.03414277864235493</v>
       </c>
       <c r="I58">
-        <v>0.04140433695064538</v>
+        <v>0.07486261034559399</v>
       </c>
       <c r="J58">
         <v>0.04140433695064538</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0.04140433695064538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>41244</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>41.90000152587891</v>
       </c>
       <c r="F59">
-        <v>36.2432861328125</v>
+        <v>36.24328231811523</v>
       </c>
       <c r="G59">
         <v>4500</v>
@@ -2214,13 +2385,16 @@
         <v>-0.02580787814396568</v>
       </c>
       <c r="I59">
-        <v>0.05915065903328665</v>
+        <v>0.07427266219473436</v>
       </c>
       <c r="J59">
         <v>0.05915065903328665</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>0.05915065903328665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>41275</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>42.54000091552734</v>
       </c>
       <c r="F60">
-        <v>36.79687881469727</v>
+        <v>36.79688262939453</v>
       </c>
       <c r="G60">
         <v>6300</v>
@@ -2246,13 +2420,16 @@
         <v>0.01527444788404475</v>
       </c>
       <c r="I60">
-        <v>0.008295859213344192</v>
+        <v>0.07364561594434699</v>
       </c>
       <c r="J60">
         <v>0.008295859213344192</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>0.008295859213344192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>41306</v>
       </c>
@@ -2278,13 +2455,16 @@
         <v>0.02773860554255592</v>
       </c>
       <c r="I61">
-        <v>0.07684736117836932</v>
+        <v>0.07309561538617998</v>
       </c>
       <c r="J61">
         <v>0.07684736117836932</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0.07684736117836932</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>41334</v>
       </c>
@@ -2310,13 +2490,16 @@
         <v>0.03362299553893333</v>
       </c>
       <c r="I62">
-        <v>0.04922217197367496</v>
+        <v>0.07259789494246527</v>
       </c>
       <c r="J62">
         <v>0.04922217197367496</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>0.04922217197367496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>41365</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>44.58000183105469</v>
       </c>
       <c r="F63">
-        <v>38.56146240234375</v>
+        <v>38.56147003173828</v>
       </c>
       <c r="G63">
         <v>21900</v>
@@ -2342,13 +2525,16 @@
         <v>-0.01349849113059642</v>
       </c>
       <c r="I63">
-        <v>0.02107196488451457</v>
+        <v>0.07201519215714654</v>
       </c>
       <c r="J63">
         <v>0.02107196488451457</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0.02107196488451457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>41395</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>44.20000076293945</v>
       </c>
       <c r="F64">
-        <v>38.2327766418457</v>
+        <v>38.23276901245117</v>
       </c>
       <c r="G64">
         <v>28100</v>
@@ -2374,13 +2560,16 @@
         <v>-0.008524025403931712</v>
       </c>
       <c r="I64">
-        <v>0.168384843340283</v>
+        <v>0.07143276100789016</v>
       </c>
       <c r="J64">
         <v>0.168384843340283</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>0.168384843340283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>41426</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>42.97000122070312</v>
       </c>
       <c r="F65">
-        <v>37.59809494018555</v>
+        <v>37.59810256958008</v>
       </c>
       <c r="G65">
         <v>32100</v>
@@ -2406,13 +2595,16 @@
         <v>-0.02782804346165646</v>
       </c>
       <c r="I65">
-        <v>0.1676631008575917</v>
+        <v>0.07094654944957179</v>
       </c>
       <c r="J65">
         <v>0.1676631008575917</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0.1676631008575917</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>41456</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>44.20000076293945</v>
       </c>
       <c r="F66">
-        <v>38.6743278503418</v>
+        <v>38.67432403564453</v>
       </c>
       <c r="G66">
         <v>17400</v>
@@ -2438,13 +2630,16 @@
         <v>0.02862461036290842</v>
       </c>
       <c r="I66">
-        <v>0.1933045267396472</v>
+        <v>0.07046950091981105</v>
       </c>
       <c r="J66">
         <v>0.1933045267396472</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0.1933045267396472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>41487</v>
       </c>
@@ -2470,13 +2665,16 @@
         <v>-0.04479636896062011</v>
       </c>
       <c r="I67">
-        <v>0.1416982623940268</v>
+        <v>0.07014572306908425</v>
       </c>
       <c r="J67">
         <v>0.1416982623940268</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0.1416982623940268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>41518</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>46.31999969482422</v>
       </c>
       <c r="F68">
-        <v>40.52930068969727</v>
+        <v>40.52930450439453</v>
       </c>
       <c r="G68">
         <v>15100</v>
@@ -2502,13 +2700,16 @@
         <v>0.09711033528134072</v>
       </c>
       <c r="I68">
-        <v>0.1442687801044689</v>
+        <v>0.07061978806678929</v>
       </c>
       <c r="J68">
         <v>0.1442687801044689</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0.1442687801044689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>41548</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>46.38999938964844</v>
       </c>
       <c r="F69">
-        <v>40.59054946899414</v>
+        <v>40.59054565429688</v>
       </c>
       <c r="G69">
         <v>12300</v>
@@ -2534,13 +2735,16 @@
         <v>0.001511219673691944</v>
       </c>
       <c r="I69">
-        <v>0.1154123399723497</v>
+        <v>0.07008274900715929</v>
       </c>
       <c r="J69">
         <v>0.1154123399723497</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0.1154123399723497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>41579</v>
       </c>
@@ -2566,13 +2770,16 @@
         <v>0.03944819692028356</v>
       </c>
       <c r="I70">
-        <v>0.1211346919900136</v>
+        <v>0.06970886614381776</v>
       </c>
       <c r="J70">
         <v>0.1211346919900136</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.1211346919900136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>41609</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>48.41999816894531</v>
       </c>
       <c r="F71">
-        <v>42.87405395507812</v>
+        <v>42.87404632568359</v>
       </c>
       <c r="G71">
         <v>20100</v>
@@ -2598,13 +2805,16 @@
         <v>0.004147593180821474</v>
       </c>
       <c r="I71">
-        <v>0.1556085061008752</v>
+        <v>0.06919480874246643</v>
       </c>
       <c r="J71">
         <v>0.1556085061008752</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>0.1556085061008752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>41640</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>47.58000183105469</v>
       </c>
       <c r="F72">
-        <v>42.13025665283203</v>
+        <v>42.13026428222656</v>
       </c>
       <c r="G72">
         <v>25700</v>
@@ -2630,13 +2840,16 @@
         <v>-0.01734812824568355</v>
       </c>
       <c r="I72">
-        <v>0.1184767467573729</v>
+        <v>0.0687313182192795</v>
       </c>
       <c r="J72">
         <v>0.1184767467573729</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0.1184767467573729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>41671</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>50.88000106811523</v>
       </c>
       <c r="F73">
-        <v>45.05229187011719</v>
+        <v>45.05229568481445</v>
       </c>
       <c r="G73">
         <v>14000</v>
@@ -2662,13 +2875,16 @@
         <v>0.06935685393157542</v>
       </c>
       <c r="I73">
-        <v>0.1637694338403077</v>
+        <v>0.06870623776237418</v>
       </c>
       <c r="J73">
         <v>0.1637694338403077</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0.1637694338403077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>41699</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>52.79999923706055</v>
       </c>
       <c r="F74">
-        <v>46.75236511230469</v>
+        <v>46.75236892700195</v>
       </c>
       <c r="G74">
         <v>17800</v>
@@ -2694,13 +2910,16 @@
         <v>0.03773581227671219</v>
       </c>
       <c r="I74">
-        <v>0.1684001071390555</v>
+        <v>0.06834425655590096</v>
       </c>
       <c r="J74">
         <v>0.1684001071390555</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.1684001071390555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>41730</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>51.59000015258789</v>
       </c>
       <c r="F75">
-        <v>45.68096542358398</v>
+        <v>45.68096160888672</v>
       </c>
       <c r="G75">
         <v>30500</v>
@@ -2726,13 +2945,16 @@
         <v>-0.02291664965827034</v>
       </c>
       <c r="I75">
-        <v>0.157245357416069</v>
+        <v>0.06793763689781118</v>
       </c>
       <c r="J75">
         <v>0.157245357416069</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.157245357416069</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>41760</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>52.22999954223633</v>
       </c>
       <c r="F76">
-        <v>46.24765777587891</v>
+        <v>46.24766540527344</v>
       </c>
       <c r="G76">
         <v>9300</v>
@@ -2758,13 +2980,16 @@
         <v>0.01240549307531524</v>
       </c>
       <c r="I76">
-        <v>0.1816741773911872</v>
+        <v>0.06747956220473746</v>
       </c>
       <c r="J76">
         <v>0.1816741773911872</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.1816741773911872</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>41791</v>
       </c>
@@ -2790,13 +3015,16 @@
         <v>-0.0001914287118673919</v>
       </c>
       <c r="I77">
-        <v>0.2152664588602178</v>
+        <v>0.06702316457252432</v>
       </c>
       <c r="J77">
         <v>0.2152664588602178</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.2152664588602178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>41821</v>
       </c>
@@ -2822,13 +3050,16 @@
         <v>-0.008425937018779805</v>
       </c>
       <c r="I78">
-        <v>0.1714931648307358</v>
+        <v>0.06658793441516285</v>
       </c>
       <c r="J78">
         <v>0.1714931648307358</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0.1714931648307358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>41852</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>50.79999923706055</v>
       </c>
       <c r="F79">
-        <v>45.33738708496094</v>
+        <v>45.33738327026367</v>
       </c>
       <c r="G79">
         <v>19400</v>
@@ -2854,13 +3085,16 @@
         <v>-0.01892621794784899</v>
       </c>
       <c r="I79">
-        <v>0.2032211693103909</v>
+        <v>0.06619529295147714</v>
       </c>
       <c r="J79">
         <v>0.2032211693103909</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0.2032211693103909</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>41883</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>50.93000030517578</v>
       </c>
       <c r="F80">
-        <v>45.45340728759766</v>
+        <v>45.45341491699219</v>
       </c>
       <c r="G80">
         <v>41800</v>
@@ -2886,13 +3120,16 @@
         <v>0.002559076182434117</v>
       </c>
       <c r="I80">
-        <v>0.09952505701045333</v>
+        <v>0.06576404945033304</v>
       </c>
       <c r="J80">
         <v>0.09952505701045333</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.09952505701045333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>41913</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>48.88999938964844</v>
       </c>
       <c r="F81">
-        <v>43.63277053833008</v>
+        <v>43.63278579711914</v>
       </c>
       <c r="G81">
         <v>9500</v>
@@ -2918,13 +3155,16 @@
         <v>-0.04005499515616595</v>
       </c>
       <c r="I81">
-        <v>0.05389092547730989</v>
+        <v>0.06551751678324966</v>
       </c>
       <c r="J81">
         <v>0.05389092547730989</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0.05389092547730989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>41944</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>48.47999954223633</v>
       </c>
       <c r="F82">
-        <v>43.26686859130859</v>
+        <v>43.26686477661133</v>
       </c>
       <c r="G82">
         <v>9200</v>
@@ -2950,13 +3190,16 @@
         <v>-0.00838617002517128</v>
       </c>
       <c r="I82">
-        <v>0.005391918601229229</v>
+        <v>0.06511209817317629</v>
       </c>
       <c r="J82">
         <v>0.005391918601229229</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0.005391918601229229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>41974</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>46.77999877929688</v>
       </c>
       <c r="F83">
-        <v>42.15464401245117</v>
+        <v>42.15464782714844</v>
       </c>
       <c r="G83">
         <v>31000</v>
@@ -2982,13 +3225,16 @@
         <v>-0.03506602266896464</v>
       </c>
       <c r="I83">
-        <v>-0.03387029020377508</v>
+        <v>0.06483463595486484</v>
       </c>
       <c r="J83">
         <v>-0.03387029020377508</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.03387029020377508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>42005</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>46.16999816894531</v>
       </c>
       <c r="F84">
-        <v>41.60496139526367</v>
+        <v>41.60495758056641</v>
       </c>
       <c r="G84">
         <v>26300</v>
@@ -3014,13 +3260,16 @@
         <v>-0.01303977396898792</v>
       </c>
       <c r="I84">
-        <v>-0.02963437595307294</v>
+        <v>0.06445323324810801</v>
       </c>
       <c r="J84">
         <v>-0.02963437595307294</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.02963437595307294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>42036</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>47.68999862670898</v>
       </c>
       <c r="F85">
-        <v>42.97466659545898</v>
+        <v>42.97467422485352</v>
       </c>
       <c r="G85">
         <v>78300</v>
@@ -3046,13 +3295,16 @@
         <v>0.03292182191997672</v>
       </c>
       <c r="I85">
-        <v>-0.06269658754793772</v>
+        <v>0.06415274203448819</v>
       </c>
       <c r="J85">
         <v>-0.06269658754793772</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.06269658754793772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>42064</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>50.59000015258789</v>
       </c>
       <c r="F86">
-        <v>45.58793258666992</v>
+        <v>45.58792877197266</v>
       </c>
       <c r="G86">
         <v>14700</v>
@@ -3078,13 +3330,16 @@
         <v>0.06080942774979969</v>
       </c>
       <c r="I86">
-        <v>-0.04185604387133113</v>
+        <v>0.06409019562939405</v>
       </c>
       <c r="J86">
         <v>-0.04185604387133113</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.04185604387133113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>42095</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>51.65999984741211</v>
       </c>
       <c r="F87">
-        <v>46.55213928222656</v>
+        <v>46.5521354675293</v>
       </c>
       <c r="G87">
         <v>9800</v>
@@ -3110,13 +3365,16 @@
         <v>0.02115041888904767</v>
       </c>
       <c r="I87">
-        <v>0.00135684618370191</v>
+        <v>0.06373993223063457</v>
       </c>
       <c r="J87">
         <v>0.00135684618370191</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0.00135684618370191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>42125</v>
       </c>
@@ -3142,13 +3400,16 @@
         <v>-0.002129318828425708</v>
       </c>
       <c r="I88">
-        <v>-0.01301934350249978</v>
+        <v>0.06336597378304622</v>
       </c>
       <c r="J88">
         <v>-0.01301934350249978</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.01301934350249978</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>42156</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>51.43000030517578</v>
       </c>
       <c r="F89">
-        <v>46.88973617553711</v>
+        <v>46.88973236083984</v>
       </c>
       <c r="G89">
         <v>10200</v>
@@ -3174,13 +3435,16 @@
         <v>-0.00232781636587287</v>
       </c>
       <c r="I89">
-        <v>-0.01512832051053536</v>
+        <v>0.06299869580335281</v>
       </c>
       <c r="J89">
         <v>-0.01512832051053536</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.01512832051053536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>42186</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>55.20999908447266</v>
       </c>
       <c r="F90">
-        <v>50.33604049682617</v>
+        <v>50.33603286743164</v>
       </c>
       <c r="G90">
         <v>57000</v>
@@ -3206,13 +3470,16 @@
         <v>0.07349793421868722</v>
       </c>
       <c r="I90">
-        <v>0.06624179965309684</v>
+        <v>0.06309076086319054</v>
       </c>
       <c r="J90">
         <v>0.06624179965309684</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.06624179965309684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>42217</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>50.27000045776367</v>
       </c>
       <c r="F91">
-        <v>45.83213806152344</v>
+        <v>45.8321418762207</v>
       </c>
       <c r="G91">
         <v>25600</v>
@@ -3238,13 +3505,16 @@
         <v>-0.08947652071413126</v>
       </c>
       <c r="I91">
-        <v>-0.01043304699324132</v>
+        <v>0.06349809167413416</v>
       </c>
       <c r="J91">
         <v>-0.01043304699324132</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>-0.01043304699324132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>42248</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>48.02999877929688</v>
       </c>
       <c r="F92">
-        <v>43.78988647460938</v>
+        <v>43.78989028930664</v>
       </c>
       <c r="G92">
         <v>49600</v>
@@ -3270,13 +3540,16 @@
         <v>-0.04455941233477456</v>
       </c>
       <c r="I92">
-        <v>-0.05694092889263525</v>
+        <v>0.06333323456280858</v>
       </c>
       <c r="J92">
         <v>-0.05694092889263525</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>-0.05694092889263525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>42278</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>50.38000106811523</v>
       </c>
       <c r="F93">
-        <v>45.93243408203125</v>
+        <v>45.93243789672852</v>
       </c>
       <c r="G93">
         <v>22500</v>
@@ -3302,13 +3575,16 @@
         <v>0.04892780238485694</v>
       </c>
       <c r="I93">
-        <v>0.03047661478969621</v>
+        <v>0.06317406529185292</v>
       </c>
       <c r="J93">
         <v>0.03047661478969621</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.03047661478969621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>42309</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>50.56999969482422</v>
       </c>
       <c r="F94">
-        <v>46.10565567016602</v>
+        <v>46.10565948486328</v>
       </c>
       <c r="G94">
         <v>22300</v>
@@ -3334,13 +3610,16 @@
         <v>0.003771310493862368</v>
       </c>
       <c r="I94">
-        <v>0.04311056461060936</v>
+        <v>0.06282618489788573</v>
       </c>
       <c r="J94">
         <v>0.04311056461060936</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.04311056461060936</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>42339</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>49.18999862670898</v>
       </c>
       <c r="F95">
-        <v>45.43818283081055</v>
+        <v>45.43819046020508</v>
       </c>
       <c r="G95">
         <v>10600</v>
@@ -3366,13 +3645,16 @@
         <v>-0.0272889277524847</v>
       </c>
       <c r="I95">
-        <v>0.05151774070756687</v>
+        <v>0.06255914410349578</v>
       </c>
       <c r="J95">
         <v>0.05151774070756687</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.05151774070756687</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>42370</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>46.06999969482422</v>
       </c>
       <c r="F96">
-        <v>42.55615234375</v>
+        <v>42.55615615844727</v>
       </c>
       <c r="G96">
         <v>23800</v>
@@ -3398,13 +3680,16 @@
         <v>-0.06342750597660474</v>
       </c>
       <c r="I96">
-        <v>-0.002165875635411152</v>
+        <v>0.06258668531786694</v>
       </c>
       <c r="J96">
         <v>-0.002165875635411152</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>-0.002165875635411152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>42401</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>45.77000045776367</v>
       </c>
       <c r="F97">
-        <v>42.27903747558594</v>
+        <v>42.27904510498047</v>
       </c>
       <c r="G97">
         <v>14900</v>
@@ -3430,13 +3715,16 @@
         <v>-0.006511813306876335</v>
       </c>
       <c r="I97">
-        <v>-0.0402599753456484</v>
+        <v>0.06225804118597594</v>
       </c>
       <c r="J97">
         <v>-0.0402599753456484</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>-0.0402599753456484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>42430</v>
       </c>
@@ -3462,13 +3750,16 @@
         <v>0.04435216864745595</v>
       </c>
       <c r="I98">
-        <v>-0.0551492569106985</v>
+        <v>0.06208580767062141</v>
       </c>
       <c r="J98">
         <v>-0.0551492569106985</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>-0.0551492569106985</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>42461</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>48.29000091552734</v>
       </c>
       <c r="F99">
-        <v>44.60683822631836</v>
+        <v>44.60683441162109</v>
       </c>
       <c r="G99">
         <v>17400</v>
@@ -3494,13 +3785,16 @@
         <v>0.01025108130309094</v>
       </c>
       <c r="I99">
-        <v>-0.06523420328762519</v>
+        <v>0.06176775254703872</v>
       </c>
       <c r="J99">
         <v>-0.06523420328762519</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>-0.06523420328762519</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>42491</v>
       </c>
@@ -3526,13 +3820,16 @@
         <v>-0.01014706293594703</v>
       </c>
       <c r="I100">
-        <v>-0.07274490893307395</v>
+        <v>0.06146029161340776</v>
       </c>
       <c r="J100">
         <v>-0.07274490893307395</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>-0.07274490893307395</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>42522</v>
       </c>
@@ -3558,13 +3855,16 @@
         <v>-0.01987449326574242</v>
       </c>
       <c r="I101">
-        <v>-0.08905311693326523</v>
+        <v>0.06118410071882513</v>
       </c>
       <c r="J101">
         <v>-0.08905311693326523</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>-0.08905311693326523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>42552</v>
       </c>
@@ -3590,13 +3890,16 @@
         <v>0.05144076682827081</v>
       </c>
       <c r="I102">
-        <v>-0.1077703470676716</v>
+        <v>0.06107952800014923</v>
       </c>
       <c r="J102">
         <v>-0.1077703470676716</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>-0.1077703470676716</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>42583</v>
       </c>
@@ -3622,13 +3925,16 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>-0.02009154818049108</v>
+        <v>0.06077366125645916</v>
       </c>
       <c r="J103">
         <v>-0.02009154818049108</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>-0.02009154818049108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>42614</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>-0.02496954088808112</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>0.06053052501128205</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>42644</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>46.45999908447266</v>
       </c>
       <c r="F105">
-        <v>43.23866271972656</v>
+        <v>43.23866653442383</v>
       </c>
       <c r="G105">
         <v>22600</v>
@@ -3686,13 +3995,16 @@
         <v>-0.03268789787063164</v>
       </c>
       <c r="I105">
-        <v>-0.07780869195184459</v>
+        <v>0.06032792325316667</v>
       </c>
       <c r="J105">
         <v>-0.07780869195184459</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>-0.07780869195184459</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>42675</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>46.77000045776367</v>
       </c>
       <c r="F106">
-        <v>43.52716827392578</v>
+        <v>43.52717208862305</v>
       </c>
       <c r="G106">
         <v>86000</v>
@@ -3718,13 +4030,16 @@
         <v>0.006672436061123888</v>
       </c>
       <c r="I106">
-        <v>-0.07514335099846703</v>
+        <v>0.06003666815402472</v>
       </c>
       <c r="J106">
         <v>-0.07514335099846703</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>-0.07514335099846703</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>42705</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>46.40000152587891</v>
       </c>
       <c r="F107">
-        <v>43.62602233886719</v>
+        <v>43.62601852416992</v>
       </c>
       <c r="G107">
         <v>8800</v>
@@ -3750,13 +4065,16 @@
         <v>-0.007911031179460792</v>
       </c>
       <c r="I107">
-        <v>-0.05671878793904206</v>
+        <v>0.05975416779225932</v>
       </c>
       <c r="J107">
         <v>-0.05671878793904206</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>-0.05671878793904206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>42736</v>
       </c>
@@ -3782,13 +4100,16 @@
         <v>0.03814647812197203</v>
       </c>
       <c r="I108">
-        <v>0.04558277595033333</v>
+        <v>0.05957675912870444</v>
       </c>
       <c r="J108">
         <v>0.04558277595033333</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.04558277595033333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>42767</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>50.36000061035156</v>
       </c>
       <c r="F109">
-        <v>47.34927368164062</v>
+        <v>47.34926986694336</v>
       </c>
       <c r="G109">
         <v>6600</v>
@@ -3814,13 +4135,16 @@
         <v>0.04546403414269018</v>
       </c>
       <c r="I109">
-        <v>0.1002840311706688</v>
+        <v>0.05944644269400583</v>
       </c>
       <c r="J109">
         <v>0.1002840311706688</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.1002840311706688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>42795</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>51.25</v>
       </c>
       <c r="F110">
-        <v>48.18607330322266</v>
+        <v>48.18606567382812</v>
       </c>
       <c r="G110">
         <v>6400</v>
@@ -3846,13 +4170,16 @@
         <v>0.01767274382172057</v>
       </c>
       <c r="I110">
-        <v>0.07217574933065229</v>
+        <v>0.05918717310569424</v>
       </c>
       <c r="J110">
         <v>0.07217574933065229</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.07217574933065229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>42826</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>51.75</v>
       </c>
       <c r="F111">
-        <v>48.65618133544922</v>
+        <v>48.65617752075195</v>
       </c>
       <c r="G111">
         <v>3200</v>
@@ -3878,13 +4205,16 @@
         <v>0.009756097560975618</v>
       </c>
       <c r="I111">
-        <v>0.0716504249093961</v>
+        <v>0.05891700887926674</v>
       </c>
       <c r="J111">
         <v>0.0716504249093961</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.0716504249093961</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>42856</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>52.65000152587891</v>
       </c>
       <c r="F112">
-        <v>49.50236892700195</v>
+        <v>49.50237655639648</v>
       </c>
       <c r="G112">
         <v>22400</v>
@@ -3910,13 +4240,16 @@
         <v>0.01739133383340885</v>
       </c>
       <c r="I112">
-        <v>0.1014644846491553</v>
+        <v>0.05866392909972298</v>
       </c>
       <c r="J112">
         <v>0.1014644846491553</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.1014644846491553</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>42887</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>54.34000015258789</v>
       </c>
       <c r="F113">
-        <v>51.41141510009766</v>
+        <v>51.41141128540039</v>
       </c>
       <c r="G113">
         <v>10100</v>
@@ -3942,13 +4275,16 @@
         <v>0.03209873841842725</v>
       </c>
       <c r="I113">
-        <v>0.1598719727302469</v>
+        <v>0.05846479190355743</v>
       </c>
       <c r="J113">
         <v>0.1598719727302469</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.1598719727302469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>42917</v>
       </c>
@@ -3974,13 +4310,16 @@
         <v>-0.01601028578288166</v>
       </c>
       <c r="I114">
-        <v>0.08546494199390975</v>
+        <v>0.05822751385856671</v>
       </c>
       <c r="J114">
         <v>0.08546494199390975</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.08546494199390975</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>42948</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>48.34000015258789</v>
       </c>
       <c r="F115">
-        <v>45.73477172851562</v>
+        <v>45.73477935791016</v>
       </c>
       <c r="G115">
         <v>32100</v>
@@ -4006,13 +4345,16 @@
         <v>-0.09594166730875142</v>
       </c>
       <c r="I115">
-        <v>-0.0186763743461833</v>
+        <v>0.058701646486522</v>
       </c>
       <c r="J115">
         <v>-0.0186763743461833</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>-0.0186763743461833</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>42979</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>49.97999954223633</v>
       </c>
       <c r="F116">
-        <v>47.2863883972168</v>
+        <v>47.28639221191406</v>
       </c>
       <c r="G116">
         <v>9900</v>
@@ -4038,13 +4380,16 @@
         <v>0.03392634225220714</v>
       </c>
       <c r="I116">
-        <v>0.04059964215072998</v>
+        <v>0.05851969102190688</v>
       </c>
       <c r="J116">
         <v>0.04059964215072998</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.04059964215072998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>43009</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>49.45999908447266</v>
       </c>
       <c r="F117">
-        <v>46.7944221496582</v>
+        <v>46.79441452026367</v>
       </c>
       <c r="G117">
         <v>5800</v>
@@ -4070,13 +4415,16 @@
         <v>-0.01040417091889401</v>
       </c>
       <c r="I117">
-        <v>0.06457167583119094</v>
+        <v>0.05827373035383106</v>
       </c>
       <c r="J117">
         <v>0.06457167583119094</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.06457167583119094</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>43040</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>49.84000015258789</v>
       </c>
       <c r="F118">
-        <v>47.15393447875977</v>
+        <v>47.15393829345703</v>
       </c>
       <c r="G118">
         <v>15500</v>
@@ -4102,13 +4450,16 @@
         <v>0.007682997880089637</v>
       </c>
       <c r="I118">
-        <v>0.06564036058961831</v>
+        <v>0.05802240292610684</v>
       </c>
       <c r="J118">
         <v>0.06564036058961831</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.06564036058961831</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>43070</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>51.29000091552734</v>
       </c>
       <c r="F119">
-        <v>49.19843292236328</v>
+        <v>49.19843673706055</v>
       </c>
       <c r="G119">
         <v>14800</v>
@@ -4134,13 +4485,16 @@
         <v>0.02909311313202645</v>
       </c>
       <c r="I119">
-        <v>0.1053879144146388</v>
+        <v>0.05782672253386465</v>
       </c>
       <c r="J119">
         <v>0.1053879144146388</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.1053879144146388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>43101</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>53.72000122070312</v>
       </c>
       <c r="F120">
-        <v>51.52934265136719</v>
+        <v>51.52934646606445</v>
       </c>
       <c r="G120">
         <v>6300</v>
@@ -4166,13 +4520,16 @@
         <v>0.04737766156756162</v>
       </c>
       <c r="I120">
-        <v>0.1152170077377299</v>
+        <v>0.05772998717212694</v>
       </c>
       <c r="J120">
         <v>0.1152170077377299</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1152170077377299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>43132</v>
       </c>
@@ -4198,13 +4555,16 @@
         <v>-0.04597917283276631</v>
       </c>
       <c r="I121">
-        <v>0.01767274382172057</v>
+        <v>0.05765599807585027</v>
       </c>
       <c r="J121">
         <v>0.01767274382172057</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.01767274382172057</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>43160</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>49.52999877929688</v>
       </c>
       <c r="F122">
-        <v>47.51020050048828</v>
+        <v>47.51020431518555</v>
       </c>
       <c r="G122">
         <v>3600</v>
@@ -4230,13 +4590,16 @@
         <v>-0.03356099942835367</v>
       </c>
       <c r="I122">
-        <v>-0.03356099942835367</v>
+        <v>0.05750514123788014</v>
       </c>
       <c r="J122">
         <v>-0.03356099942835367</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>-0.03356099942835367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>43191</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>48.9900016784668</v>
       </c>
       <c r="F123">
-        <v>46.99222946166992</v>
+        <v>46.99223327636719</v>
       </c>
       <c r="G123">
         <v>4300</v>
@@ -4262,13 +4625,16 @@
         <v>-0.01090242507851202</v>
       </c>
       <c r="I123">
-        <v>-0.0533333008991923</v>
+        <v>0.05674380671926114</v>
       </c>
       <c r="J123">
         <v>-0.0533333008991923</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>-0.0533333008991923</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>43221</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>51.95000076293945</v>
       </c>
       <c r="F124">
-        <v>49.83152008056641</v>
+        <v>49.83152389526367</v>
       </c>
       <c r="G124">
         <v>38400</v>
@@ -4294,13 +4660,16 @@
         <v>0.06042047322022648</v>
       </c>
       <c r="I124">
-        <v>-0.01329536073413751</v>
+        <v>0.05651602908651883</v>
       </c>
       <c r="J124">
         <v>-0.01329536073413751</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>-0.01329536073413751</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>43252</v>
       </c>
@@ -4326,13 +4695,16 @@
         <v>-0.0009624492074351565</v>
       </c>
       <c r="I125">
-        <v>-0.04490244055681658</v>
+        <v>0.05621750793440122</v>
       </c>
       <c r="J125">
         <v>-0.04490244055681658</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>-0.04490244055681658</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>43282</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>53.56000137329102</v>
       </c>
       <c r="F126">
-        <v>51.71026992797852</v>
+        <v>51.71026611328125</v>
       </c>
       <c r="G126">
         <v>41400</v>
@@ -4358,13 +4730,16 @@
         <v>0.03198458186141639</v>
       </c>
       <c r="I126">
-        <v>0.001683189649022143</v>
+        <v>0.05564478546499414</v>
       </c>
       <c r="J126">
         <v>0.001683189649022143</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.001683189649022143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>43313</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>56.59999847412109</v>
       </c>
       <c r="F127">
-        <v>54.64527893066406</v>
+        <v>54.6452751159668</v>
       </c>
       <c r="G127">
         <v>87500</v>
@@ -4390,13 +4765,16 @@
         <v>0.05675871962068402</v>
       </c>
       <c r="I127">
-        <v>0.1708729477753426</v>
+        <v>0.05572715436037217</v>
       </c>
       <c r="J127">
         <v>0.1708729477753426</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.1708729477753426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>43344</v>
       </c>
@@ -4422,13 +4800,16 @@
         <v>-0.01042403124547175</v>
       </c>
       <c r="I128">
-        <v>0.120648235984899</v>
+        <v>0.05505579343122869</v>
       </c>
       <c r="J128">
         <v>0.120648235984899</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.120648235984899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>43374</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>52.31999969482422</v>
       </c>
       <c r="F129">
-        <v>50.51309585571289</v>
+        <v>50.51309204101562</v>
       </c>
       <c r="G129">
         <v>2600</v>
@@ -4454,13 +4835,16 @@
         <v>-0.0658810701176249</v>
       </c>
       <c r="I129">
-        <v>0.0578245180608874</v>
+        <v>0.05262293064685058</v>
       </c>
       <c r="J129">
         <v>0.0578245180608874</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.0578245180608874</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>43405</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>54.68999862670898</v>
       </c>
       <c r="F130">
-        <v>52.80124664306641</v>
+        <v>52.80123901367188</v>
       </c>
       <c r="G130">
         <v>5900</v>
@@ -4486,13 +4870,16 @@
         <v>0.04529814498678641</v>
       </c>
       <c r="I130">
-        <v>0.09731136555522779</v>
+        <v>0.05147499653488898</v>
       </c>
       <c r="J130">
         <v>0.09731136555522779</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.09731136555522779</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>43435</v>
       </c>
@@ -4518,13 +4905,16 @@
         <v>-0.1146461988518243</v>
       </c>
       <c r="I131">
-        <v>-0.05595637932057784</v>
+        <v>0.05258236398008096</v>
       </c>
       <c r="J131">
         <v>-0.05595637932057784</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>-0.05595637932057784</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>43466</v>
       </c>
@@ -4550,13 +4940,16 @@
         <v>0.1125568147260871</v>
       </c>
       <c r="I132">
-        <v>0.002792213473067351</v>
+        <v>0.0534608950386511</v>
       </c>
       <c r="J132">
         <v>0.002792213473067351</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.002792213473067351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>43497</v>
       </c>
@@ -4582,13 +4975,16 @@
         <v>0.008539129539459678</v>
       </c>
       <c r="I133">
-        <v>0.06009759670350601</v>
+        <v>0.05345779047608701</v>
       </c>
       <c r="J133">
         <v>0.06009759670350601</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.06009759670350601</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>43525</v>
       </c>
@@ -4614,13 +5010,16 @@
         <v>-0.004969638296778767</v>
       </c>
       <c r="I134">
-        <v>0.09145977600725574</v>
+        <v>0.05295348890419545</v>
       </c>
       <c r="J134">
         <v>0.09145977600725574</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.09145977600725574</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>43556</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>56.38000106811523</v>
       </c>
       <c r="F135">
-        <v>54.51626586914062</v>
+        <v>54.51626205444336</v>
       </c>
       <c r="G135">
         <v>12300</v>
@@ -4646,13 +5045,16 @@
         <v>0.04291527258396344</v>
       </c>
       <c r="I135">
-        <v>0.1508470940285078</v>
+        <v>0.052559753404181</v>
       </c>
       <c r="J135">
         <v>0.1508470940285078</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.1508470940285078</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>43586</v>
       </c>
@@ -4678,13 +5080,16 @@
         <v>-0.07573608330735737</v>
       </c>
       <c r="I136">
-        <v>0.003079881521893091</v>
+        <v>0.05161733053093782</v>
       </c>
       <c r="J136">
         <v>0.003079881521893091</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.003079881521893091</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>43617</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>54.52999877929688</v>
       </c>
       <c r="F137">
-        <v>52.89709091186523</v>
+        <v>52.89708709716797</v>
       </c>
       <c r="G137">
         <v>4700</v>
@@ -4710,13 +5115,16 @@
         <v>0.04644018692382401</v>
       </c>
       <c r="I137">
-        <v>0.0506743193852619</v>
+        <v>0.05176534641771733</v>
       </c>
       <c r="J137">
         <v>0.0506743193852619</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.0506743193852619</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>43647</v>
       </c>
@@ -4742,13 +5150,16 @@
         <v>0.01375389724535903</v>
       </c>
       <c r="I138">
-        <v>0.0321134682954578</v>
+        <v>0.05011404915969135</v>
       </c>
       <c r="J138">
         <v>0.0321134682954578</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.0321134682954578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>43678</v>
       </c>
@@ -4774,13 +5185,16 @@
         <v>-0.03853106549299856</v>
       </c>
       <c r="I139">
-        <v>-0.06095401132951639</v>
+        <v>0.05024092162693698</v>
       </c>
       <c r="J139">
         <v>-0.06095401132951639</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>-0.06095401132951639</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>43709</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>54.59999847412109</v>
       </c>
       <c r="F140">
-        <v>52.96498870849609</v>
+        <v>52.96499252319336</v>
       </c>
       <c r="G140">
         <v>17000</v>
@@ -4806,13 +5220,16 @@
         <v>0.02728122119688337</v>
       </c>
       <c r="I140">
-        <v>-0.02517407408794781</v>
+        <v>0.05014138222053502</v>
       </c>
       <c r="J140">
         <v>-0.02517407408794781</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>-0.02517407408794781</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>43739</v>
       </c>
@@ -4838,13 +5255,16 @@
         <v>0.02307696284694361</v>
       </c>
       <c r="I141">
-        <v>0.0676605683519822</v>
+        <v>0.05017458388632169</v>
       </c>
       <c r="J141">
         <v>0.0676605683519822</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.0676605683519822</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>43770</v>
       </c>
@@ -4870,13 +5290,16 @@
         <v>0.05245256486146221</v>
       </c>
       <c r="I142">
-        <v>0.07496804519603772</v>
+        <v>0.05012924953804374</v>
       </c>
       <c r="J142">
         <v>0.07496804519603772</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.07496804519603772</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>43800</v>
       </c>
@@ -4902,13 +5325,16 @@
         <v>-0.02449400270422386</v>
       </c>
       <c r="I143">
-        <v>0.1844279356231602</v>
+        <v>0.05004728195411702</v>
       </c>
       <c r="J143">
         <v>0.1844279356231602</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.1844279356231602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>43831</v>
       </c>
@@ -4934,13 +5360,16 @@
         <v>0.02301656024315091</v>
       </c>
       <c r="I144">
-        <v>0.08910338467112</v>
+        <v>0.05007789621252092</v>
       </c>
       <c r="J144">
         <v>0.08910338467112</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.08910338467112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>43862</v>
       </c>
@@ -4966,13 +5395,16 @@
         <v>-0.06306454855491439</v>
       </c>
       <c r="I145">
-        <v>0.01177985216416122</v>
+        <v>0.05033146260601953</v>
       </c>
       <c r="J145">
         <v>0.01177985216416122</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.01177985216416122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>43891</v>
       </c>
@@ -4998,13 +5430,16 @@
         <v>-0.1831908217428163</v>
       </c>
       <c r="I146">
-        <v>-0.1694413543233411</v>
+        <v>0.05284374514924988</v>
       </c>
       <c r="J146">
         <v>-0.1694413543233411</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.1694413543233411</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>43922</v>
       </c>
@@ -5030,13 +5465,16 @@
         <v>0.1224944279084261</v>
       </c>
       <c r="I147">
-        <v>-0.1060659707156022</v>
+        <v>0.05369134229051042</v>
       </c>
       <c r="J147">
         <v>-0.1060659707156022</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.1060659707156022</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>43952</v>
       </c>
@@ -5062,13 +5500,16 @@
         <v>0.04781745584223129</v>
       </c>
       <c r="I148">
-        <v>0.01343313672501467</v>
+        <v>0.05330503475348284</v>
       </c>
       <c r="J148">
         <v>0.01343313672501467</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.01343313672501467</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>43983</v>
       </c>
@@ -5094,13 +5535,16 @@
         <v>-0.01931453193030108</v>
       </c>
       <c r="I149">
-        <v>-0.05024753209438571</v>
+        <v>0.05256562847609886</v>
       </c>
       <c r="J149">
         <v>-0.05024753209438571</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.05024753209438571</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>44013</v>
       </c>
@@ -5126,13 +5570,16 @@
         <v>0.06352579373175793</v>
       </c>
       <c r="I150">
-        <v>-0.003617889881667113</v>
+        <v>0.05257726365222487</v>
       </c>
       <c r="J150">
         <v>-0.003617889881667113</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.003617889881667113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>44044</v>
       </c>
@@ -5158,13 +5605,16 @@
         <v>0.02450977540381905</v>
       </c>
       <c r="I151">
-        <v>0.06171211072684235</v>
+        <v>0.05258655293733532</v>
       </c>
       <c r="J151">
         <v>0.06171211072684235</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>0.06171211072684235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>44075</v>
       </c>
@@ -5190,13 +5640,16 @@
         <v>-0.07088428102725208</v>
       </c>
       <c r="I152">
-        <v>-0.03974355731848289</v>
+        <v>0.05206581340130886</v>
       </c>
       <c r="J152">
         <v>-0.03974355731848289</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.03974355731848289</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>44105</v>
       </c>
@@ -5222,13 +5675,16 @@
         <v>-0.001144409173026273</v>
       </c>
       <c r="I153">
-        <v>-0.06247765199308031</v>
+        <v>0.05195740537194495</v>
       </c>
       <c r="J153">
         <v>-0.06247765199308031</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.06247765199308031</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>44136</v>
       </c>
@@ -5254,13 +5710,16 @@
         <v>0.1237349565476327</v>
       </c>
       <c r="I154">
-        <v>0.001020540188117369</v>
+        <v>0.05310464121301266</v>
       </c>
       <c r="J154">
         <v>0.001020540188117369</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>0.001020540188117369</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>44166</v>
       </c>
@@ -5286,13 +5745,16 @@
         <v>0.08937981771645287</v>
       </c>
       <c r="I155">
-        <v>0.1178727518062774</v>
+        <v>0.05311421965883408</v>
       </c>
       <c r="J155">
         <v>0.1178727518062774</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>0.1178727518062774</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>44197</v>
       </c>
@@ -5318,13 +5780,16 @@
         <v>-0.003587576665834424</v>
       </c>
       <c r="I156">
-        <v>0.08880182481286725</v>
+        <v>0.05281392785774018</v>
       </c>
       <c r="J156">
         <v>0.08880182481286725</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>0.08880182481286725</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>44228</v>
       </c>
@@ -5350,13 +5815,16 @@
         <v>0.005322481949011637</v>
       </c>
       <c r="I157">
-        <v>0.1682736000470781</v>
+        <v>0.05281197223058509</v>
       </c>
       <c r="J157">
         <v>0.1682736000470781</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>0.1682736000470781</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>44256</v>
       </c>
@@ -5382,13 +5850,16 @@
         <v>0.004359993366157333</v>
       </c>
       <c r="I158">
-        <v>0.4365255636533618</v>
+        <v>0.05269029882171521</v>
       </c>
       <c r="J158">
         <v>0.4365255636533618</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>0.4365255636533618</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>44287</v>
       </c>
@@ -5414,13 +5885,16 @@
         <v>0.06077516541000483</v>
       </c>
       <c r="I159">
-        <v>0.3575396051092117</v>
+        <v>0.05296150041913519</v>
       </c>
       <c r="J159">
         <v>0.3575396051092117</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>0.3575396051092117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>44317</v>
       </c>
@@ -5446,13 +5920,16 @@
         <v>0.003507826652836776</v>
       </c>
       <c r="I160">
-        <v>0.3001325861891493</v>
+        <v>0.05285159677980428</v>
       </c>
       <c r="J160">
         <v>0.3001325861891493</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>0.3001325861891493</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>44348</v>
       </c>
@@ -5478,13 +5955,16 @@
         <v>0.01412749110941114</v>
       </c>
       <c r="I161">
-        <v>0.3444679672238036</v>
+        <v>0.05269398306851396</v>
       </c>
       <c r="J161">
         <v>0.3444679672238036</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>0.3444679672238036</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>44378</v>
       </c>
@@ -5510,13 +5990,16 @@
         <v>0.01665953910478479</v>
       </c>
       <c r="I162">
-        <v>0.2852214699022613</v>
+        <v>0.05264651647683378</v>
       </c>
       <c r="J162">
         <v>0.2852214699022613</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>0.2852214699022613</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>44409</v>
       </c>
@@ -5542,13 +6025,16 @@
         <v>0.01935305451142511</v>
       </c>
       <c r="I163">
-        <v>0.2787524946281248</v>
+        <v>0.05091600172706864</v>
       </c>
       <c r="J163">
         <v>0.2787524946281248</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>0.2787524946281248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>44440</v>
       </c>
@@ -5574,13 +6060,16 @@
         <v>-0.007760603652551268</v>
       </c>
       <c r="I164">
-        <v>0.3656303272432537</v>
+        <v>0.04951845313061537</v>
       </c>
       <c r="J164">
         <v>0.3656303272432537</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.3656303272432537</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>44470</v>
       </c>
@@ -5606,13 +6095,16 @@
         <v>0.05921784852135192</v>
       </c>
       <c r="I165">
-        <v>0.4481573015980427</v>
+        <v>0.04871276318186153</v>
       </c>
       <c r="J165">
         <v>0.4481573015980427</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.4481573015980427</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>44501</v>
       </c>
@@ -5638,42 +6130,83 @@
         <v>-0.008438810925003759</v>
       </c>
       <c r="I166">
-        <v>0.2778249600348062</v>
+        <v>0.04811206832568148</v>
       </c>
       <c r="J166">
         <v>0.2778249600348062</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.2778249600348062</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>44531</v>
       </c>
       <c r="B167">
+        <v>77.98000335693359</v>
+      </c>
+      <c r="C167">
         <v>78.18000030517578</v>
       </c>
-      <c r="C167">
-        <v>78.55999755859375</v>
-      </c>
       <c r="D167">
-        <v>78.01010131835938</v>
+        <v>77.69999694824219</v>
       </c>
       <c r="E167">
-        <v>78.01010131835938</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="F167">
-        <v>78.01010131835938</v>
+        <v>77.90000152587891</v>
       </c>
       <c r="G167">
-        <v>9117</v>
+        <v>22700</v>
       </c>
       <c r="H167">
-        <v>0.03736841069357077</v>
+        <v>0.03590431764904256</v>
       </c>
       <c r="I167">
-        <v>0.2168164182759877</v>
+        <v>0.0479808820928572</v>
       </c>
       <c r="J167">
-        <v>0.2168164182759877</v>
+        <v>0.215099060743118</v>
+      </c>
+      <c r="K167">
+        <v>0.215099060743118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B168">
+        <v>78.94999694824219</v>
+      </c>
+      <c r="C168">
+        <v>79.36000061035156</v>
+      </c>
+      <c r="D168">
+        <v>78.33999633789062</v>
+      </c>
+      <c r="E168">
+        <v>78.73000335693359</v>
+      </c>
+      <c r="F168">
+        <v>78.73000335693359</v>
+      </c>
+      <c r="G168">
+        <v>78565</v>
+      </c>
+      <c r="H168">
+        <v>0.01065470879071739</v>
+      </c>
+      <c r="I168">
+        <v>0.04766720573431289</v>
+      </c>
+      <c r="J168">
+        <v>0.232467157803955</v>
+      </c>
+      <c r="K168">
+        <v>0.232467157803955</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EIS.xlsx
+++ b/etf_dfs/EIS.xlsx
@@ -508,7 +508,7 @@
         <v>49.06999969482422</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21850967407227</v>
+        <v>37.21851348876953</v>
       </c>
       <c r="G2" t="n">
         <v>27000</v>
@@ -564,7 +564,7 @@
         <v>58.61000061035156</v>
       </c>
       <c r="F4" t="n">
-        <v>44.45439529418945</v>
+        <v>44.45439147949219</v>
       </c>
       <c r="G4" t="n">
         <v>40900</v>
@@ -626,7 +626,7 @@
         <v>49.95999908447266</v>
       </c>
       <c r="F6" t="n">
-        <v>37.89355087280273</v>
+        <v>37.89355850219727</v>
       </c>
       <c r="G6" t="n">
         <v>55700</v>
@@ -657,7 +657,7 @@
         <v>47.93999862670898</v>
       </c>
       <c r="F7" t="n">
-        <v>36.36143112182617</v>
+        <v>36.36143493652344</v>
       </c>
       <c r="G7" t="n">
         <v>44300</v>
@@ -688,7 +688,7 @@
         <v>43.54000091552734</v>
       </c>
       <c r="F8" t="n">
-        <v>33.02413177490234</v>
+        <v>33.02412414550781</v>
       </c>
       <c r="G8" t="n">
         <v>59800</v>
@@ -719,7 +719,7 @@
         <v>35.45000076293945</v>
       </c>
       <c r="F9" t="n">
-        <v>26.88804244995117</v>
+        <v>26.8880443572998</v>
       </c>
       <c r="G9" t="n">
         <v>47000</v>
@@ -750,7 +750,7 @@
         <v>31.18000030517578</v>
       </c>
       <c r="F10" t="n">
-        <v>23.64934158325195</v>
+        <v>23.64934349060059</v>
       </c>
       <c r="G10" t="n">
         <v>2200</v>
@@ -781,7 +781,7 @@
         <v>30.5</v>
       </c>
       <c r="F11" t="n">
-        <v>23.69333457946777</v>
+        <v>23.6933422088623</v>
       </c>
       <c r="G11" t="n">
         <v>32400</v>
@@ -812,7 +812,7 @@
         <v>30.1299991607666</v>
       </c>
       <c r="F12" t="n">
-        <v>23.40590667724609</v>
+        <v>23.40590476989746</v>
       </c>
       <c r="G12" t="n">
         <v>27000</v>
@@ -843,7 +843,7 @@
         <v>30.52000045776367</v>
       </c>
       <c r="F13" t="n">
-        <v>23.7088737487793</v>
+        <v>23.70886993408203</v>
       </c>
       <c r="G13" t="n">
         <v>17400</v>
@@ -874,7 +874,7 @@
         <v>33.15999984741211</v>
       </c>
       <c r="F14" t="n">
-        <v>25.75970458984375</v>
+        <v>25.75969886779785</v>
       </c>
       <c r="G14" t="n">
         <v>18900</v>
@@ -909,7 +909,7 @@
         <v>35.97999954223633</v>
       </c>
       <c r="F15" t="n">
-        <v>27.95036315917969</v>
+        <v>27.95036697387695</v>
       </c>
       <c r="G15" t="n">
         <v>18400</v>
@@ -979,7 +979,7 @@
         <v>41.31000137329102</v>
       </c>
       <c r="F17" t="n">
-        <v>32.30042266845703</v>
+        <v>32.30043029785156</v>
       </c>
       <c r="G17" t="n">
         <v>19500</v>
@@ -1049,7 +1049,7 @@
         <v>46.81000137329102</v>
       </c>
       <c r="F19" t="n">
-        <v>36.60088729858398</v>
+        <v>36.60089492797852</v>
       </c>
       <c r="G19" t="n">
         <v>82600</v>
@@ -1084,7 +1084,7 @@
         <v>48.90999984741211</v>
       </c>
       <c r="F20" t="n">
-        <v>38.24288177490234</v>
+        <v>38.24288940429688</v>
       </c>
       <c r="G20" t="n">
         <v>58200</v>
@@ -1119,7 +1119,7 @@
         <v>49.31999969482422</v>
       </c>
       <c r="F21" t="n">
-        <v>38.56346893310547</v>
+        <v>38.56347274780273</v>
       </c>
       <c r="G21" t="n">
         <v>41300</v>
@@ -1154,7 +1154,7 @@
         <v>52.15999984741211</v>
       </c>
       <c r="F22" t="n">
-        <v>40.78408432006836</v>
+        <v>40.78407287597656</v>
       </c>
       <c r="G22" t="n">
         <v>30800</v>
@@ -1189,7 +1189,7 @@
         <v>54.40000152587891</v>
       </c>
       <c r="F23" t="n">
-        <v>42.95086288452148</v>
+        <v>42.95086669921875</v>
       </c>
       <c r="G23" t="n">
         <v>22500</v>
@@ -1224,7 +1224,7 @@
         <v>54</v>
       </c>
       <c r="F24" t="n">
-        <v>42.63505172729492</v>
+        <v>42.63504028320312</v>
       </c>
       <c r="G24" t="n">
         <v>50000</v>
@@ -1364,7 +1364,7 @@
         <v>50.45000076293945</v>
       </c>
       <c r="F28" t="n">
-        <v>39.83219146728516</v>
+        <v>39.83218383789062</v>
       </c>
       <c r="G28" t="n">
         <v>203500</v>
@@ -1399,7 +1399,7 @@
         <v>45.56999969482422</v>
       </c>
       <c r="F29" t="n">
-        <v>36.69574356079102</v>
+        <v>36.69574737548828</v>
       </c>
       <c r="G29" t="n">
         <v>129500</v>
@@ -1469,7 +1469,7 @@
         <v>49.45999908447266</v>
       </c>
       <c r="F31" t="n">
-        <v>39.82820892333984</v>
+        <v>39.82820510864258</v>
       </c>
       <c r="G31" t="n">
         <v>34500</v>
@@ -1539,7 +1539,7 @@
         <v>56.97000122070312</v>
       </c>
       <c r="F33" t="n">
-        <v>45.8757209777832</v>
+        <v>45.87571334838867</v>
       </c>
       <c r="G33" t="n">
         <v>29400</v>
@@ -1574,7 +1574,7 @@
         <v>55.59000015258789</v>
       </c>
       <c r="F34" t="n">
-        <v>44.76445770263672</v>
+        <v>44.76445388793945</v>
       </c>
       <c r="G34" t="n">
         <v>22500</v>
@@ -1609,7 +1609,7 @@
         <v>60.52000045776367</v>
       </c>
       <c r="F35" t="n">
-        <v>49.52549362182617</v>
+        <v>49.52548980712891</v>
       </c>
       <c r="G35" t="n">
         <v>8800</v>
@@ -1644,7 +1644,7 @@
         <v>56.90999984741211</v>
       </c>
       <c r="F36" t="n">
-        <v>46.57131195068359</v>
+        <v>46.57131958007812</v>
       </c>
       <c r="G36" t="n">
         <v>67500</v>
@@ -1679,7 +1679,7 @@
         <v>56.72000122070312</v>
       </c>
       <c r="F37" t="n">
-        <v>46.41584014892578</v>
+        <v>46.41582489013672</v>
       </c>
       <c r="G37" t="n">
         <v>18100</v>
@@ -1714,7 +1714,7 @@
         <v>59.06999969482422</v>
       </c>
       <c r="F38" t="n">
-        <v>48.33892059326172</v>
+        <v>48.33891677856445</v>
       </c>
       <c r="G38" t="n">
         <v>13100</v>
@@ -1749,7 +1749,7 @@
         <v>59.25</v>
       </c>
       <c r="F39" t="n">
-        <v>48.48620986938477</v>
+        <v>48.4862060546875</v>
       </c>
       <c r="G39" t="n">
         <v>16000</v>
@@ -1819,7 +1819,7 @@
         <v>54.77000045776367</v>
       </c>
       <c r="F41" t="n">
-        <v>45.46676635742188</v>
+        <v>45.46677017211914</v>
       </c>
       <c r="G41" t="n">
         <v>30900</v>
@@ -1854,7 +1854,7 @@
         <v>53.45000076293945</v>
       </c>
       <c r="F42" t="n">
-        <v>44.37098693847656</v>
+        <v>44.3709831237793</v>
       </c>
       <c r="G42" t="n">
         <v>121000</v>
@@ -1889,7 +1889,7 @@
         <v>45.84000015258789</v>
       </c>
       <c r="F43" t="n">
-        <v>38.05360412597656</v>
+        <v>38.05361175537109</v>
       </c>
       <c r="G43" t="n">
         <v>53000</v>
@@ -1924,7 +1924,7 @@
         <v>40.13999938964844</v>
       </c>
       <c r="F44" t="n">
-        <v>33.32181167602539</v>
+        <v>33.32181549072266</v>
       </c>
       <c r="G44" t="n">
         <v>40300</v>
@@ -1959,7 +1959,7 @@
         <v>44.81999969482422</v>
       </c>
       <c r="F45" t="n">
-        <v>37.20687103271484</v>
+        <v>37.20687484741211</v>
       </c>
       <c r="G45" t="n">
         <v>11000</v>
@@ -1994,7 +1994,7 @@
         <v>41.29999923706055</v>
       </c>
       <c r="F46" t="n">
-        <v>34.2847785949707</v>
+        <v>34.28477478027344</v>
       </c>
       <c r="G46" t="n">
         <v>10500</v>
@@ -2029,7 +2029,7 @@
         <v>39.56000137329102</v>
       </c>
       <c r="F47" t="n">
-        <v>33.3357048034668</v>
+        <v>33.33570098876953</v>
       </c>
       <c r="G47" t="n">
         <v>17200</v>
@@ -2099,7 +2099,7 @@
         <v>40.59999847412109</v>
       </c>
       <c r="F49" t="n">
-        <v>34.21207046508789</v>
+        <v>34.21206665039062</v>
       </c>
       <c r="G49" t="n">
         <v>658500</v>
@@ -2134,7 +2134,7 @@
         <v>43.06999969482422</v>
       </c>
       <c r="F50" t="n">
-        <v>36.29344940185547</v>
+        <v>36.29343795776367</v>
       </c>
       <c r="G50" t="n">
         <v>4700</v>
@@ -2169,7 +2169,7 @@
         <v>43.65999984741211</v>
       </c>
       <c r="F51" t="n">
-        <v>36.79060745239258</v>
+        <v>36.79060363769531</v>
       </c>
       <c r="G51" t="n">
         <v>80000</v>
@@ -2204,7 +2204,7 @@
         <v>37.83000183105469</v>
       </c>
       <c r="F52" t="n">
-        <v>31.87790107727051</v>
+        <v>31.87789535522461</v>
       </c>
       <c r="G52" t="n">
         <v>29300</v>
@@ -2239,7 +2239,7 @@
         <v>36.79999923706055</v>
       </c>
       <c r="F53" t="n">
-        <v>31.43024635314941</v>
+        <v>31.43024253845215</v>
       </c>
       <c r="G53" t="n">
         <v>39300</v>
@@ -2274,7 +2274,7 @@
         <v>37.04000091552734</v>
       </c>
       <c r="F54" t="n">
-        <v>31.63522338867188</v>
+        <v>31.6352367401123</v>
       </c>
       <c r="G54" t="n">
         <v>8600</v>
@@ -2309,7 +2309,7 @@
         <v>36.97999954223633</v>
       </c>
       <c r="F55" t="n">
-        <v>31.58398056030273</v>
+        <v>31.58397483825684</v>
       </c>
       <c r="G55" t="n">
         <v>19100</v>
@@ -2379,7 +2379,7 @@
         <v>41.59000015258789</v>
       </c>
       <c r="F57" t="n">
-        <v>35.52129745483398</v>
+        <v>35.52129364013672</v>
       </c>
       <c r="G57" t="n">
         <v>43700</v>
@@ -2414,7 +2414,7 @@
         <v>43.0099983215332</v>
       </c>
       <c r="F58" t="n">
-        <v>36.73410034179688</v>
+        <v>36.73409652709961</v>
       </c>
       <c r="G58" t="n">
         <v>28700</v>
@@ -2519,7 +2519,7 @@
         <v>43.72000122070312</v>
       </c>
       <c r="F61" t="n">
-        <v>37.81756973266602</v>
+        <v>37.81757736206055</v>
       </c>
       <c r="G61" t="n">
         <v>16900</v>
@@ -2589,7 +2589,7 @@
         <v>44.58000183105469</v>
       </c>
       <c r="F63" t="n">
-        <v>38.56147384643555</v>
+        <v>38.56147003173828</v>
       </c>
       <c r="G63" t="n">
         <v>21900</v>
@@ -2624,7 +2624,7 @@
         <v>44.20000076293945</v>
       </c>
       <c r="F64" t="n">
-        <v>38.23276519775391</v>
+        <v>38.23277282714844</v>
       </c>
       <c r="G64" t="n">
         <v>28100</v>
@@ -2694,7 +2694,7 @@
         <v>44.20000076293945</v>
       </c>
       <c r="F66" t="n">
-        <v>38.67432403564453</v>
+        <v>38.67433547973633</v>
       </c>
       <c r="G66" t="n">
         <v>17400</v>
@@ -2764,7 +2764,7 @@
         <v>46.31999969482422</v>
       </c>
       <c r="F68" t="n">
-        <v>40.529296875</v>
+        <v>40.5293083190918</v>
       </c>
       <c r="G68" t="n">
         <v>15100</v>
@@ -2869,7 +2869,7 @@
         <v>48.41999816894531</v>
       </c>
       <c r="F71" t="n">
-        <v>42.87405014038086</v>
+        <v>42.87405776977539</v>
       </c>
       <c r="G71" t="n">
         <v>20100</v>
@@ -2904,7 +2904,7 @@
         <v>47.58000183105469</v>
       </c>
       <c r="F72" t="n">
-        <v>42.13026809692383</v>
+        <v>42.1302604675293</v>
       </c>
       <c r="G72" t="n">
         <v>25700</v>
@@ -2939,7 +2939,7 @@
         <v>50.88000106811523</v>
       </c>
       <c r="F73" t="n">
-        <v>45.05228042602539</v>
+        <v>45.05228424072266</v>
       </c>
       <c r="G73" t="n">
         <v>14000</v>
@@ -2974,7 +2974,7 @@
         <v>52.79999923706055</v>
       </c>
       <c r="F74" t="n">
-        <v>46.75237655639648</v>
+        <v>46.75236892700195</v>
       </c>
       <c r="G74" t="n">
         <v>17800</v>
@@ -3009,7 +3009,7 @@
         <v>51.59000015258789</v>
       </c>
       <c r="F75" t="n">
-        <v>45.68096923828125</v>
+        <v>45.68095779418945</v>
       </c>
       <c r="G75" t="n">
         <v>30500</v>
@@ -3044,7 +3044,7 @@
         <v>52.22999954223633</v>
       </c>
       <c r="F76" t="n">
-        <v>46.2476692199707</v>
+        <v>46.24766540527344</v>
       </c>
       <c r="G76" t="n">
         <v>9300</v>
@@ -3079,7 +3079,7 @@
         <v>52.22000122070312</v>
       </c>
       <c r="F77" t="n">
-        <v>46.60470581054688</v>
+        <v>46.60469818115234</v>
       </c>
       <c r="G77" t="n">
         <v>5500</v>
@@ -3114,7 +3114,7 @@
         <v>51.77999877929688</v>
       </c>
       <c r="F78" t="n">
-        <v>46.21201705932617</v>
+        <v>46.21201324462891</v>
       </c>
       <c r="G78" t="n">
         <v>20100</v>
@@ -3149,7 +3149,7 @@
         <v>50.79999923706055</v>
       </c>
       <c r="F79" t="n">
-        <v>45.33739471435547</v>
+        <v>45.33738327026367</v>
       </c>
       <c r="G79" t="n">
         <v>19400</v>
@@ -3184,7 +3184,7 @@
         <v>50.93000030517578</v>
       </c>
       <c r="F80" t="n">
-        <v>45.45341491699219</v>
+        <v>45.45341110229492</v>
       </c>
       <c r="G80" t="n">
         <v>41800</v>
@@ -3219,7 +3219,7 @@
         <v>48.88999938964844</v>
       </c>
       <c r="F81" t="n">
-        <v>43.63278198242188</v>
+        <v>43.63277816772461</v>
       </c>
       <c r="G81" t="n">
         <v>9500</v>
@@ -3254,7 +3254,7 @@
         <v>48.47999954223633</v>
       </c>
       <c r="F82" t="n">
-        <v>43.2668571472168</v>
+        <v>43.26686477661133</v>
       </c>
       <c r="G82" t="n">
         <v>9200</v>
@@ -3289,7 +3289,7 @@
         <v>46.77999877929688</v>
       </c>
       <c r="F83" t="n">
-        <v>42.15464401245117</v>
+        <v>42.15464019775391</v>
       </c>
       <c r="G83" t="n">
         <v>31000</v>
@@ -3324,7 +3324,7 @@
         <v>46.16999816894531</v>
       </c>
       <c r="F84" t="n">
-        <v>41.60495758056641</v>
+        <v>41.60496139526367</v>
       </c>
       <c r="G84" t="n">
         <v>26300</v>
@@ -3359,7 +3359,7 @@
         <v>47.68999862670898</v>
       </c>
       <c r="F85" t="n">
-        <v>42.97465896606445</v>
+        <v>42.97466278076172</v>
       </c>
       <c r="G85" t="n">
         <v>78300</v>
@@ -3429,7 +3429,7 @@
         <v>51.65999984741211</v>
       </c>
       <c r="F87" t="n">
-        <v>46.55213928222656</v>
+        <v>46.55213165283203</v>
       </c>
       <c r="G87" t="n">
         <v>9800</v>
@@ -3499,7 +3499,7 @@
         <v>51.43000030517578</v>
       </c>
       <c r="F89" t="n">
-        <v>46.88973236083984</v>
+        <v>46.88973999023438</v>
       </c>
       <c r="G89" t="n">
         <v>10200</v>
@@ -3534,7 +3534,7 @@
         <v>55.20999908447266</v>
       </c>
       <c r="F90" t="n">
-        <v>50.33603668212891</v>
+        <v>50.33603286743164</v>
       </c>
       <c r="G90" t="n">
         <v>57000</v>
@@ -3569,7 +3569,7 @@
         <v>50.27000045776367</v>
       </c>
       <c r="F91" t="n">
-        <v>45.83214569091797</v>
+        <v>45.83213424682617</v>
       </c>
       <c r="G91" t="n">
         <v>25600</v>
@@ -3604,7 +3604,7 @@
         <v>48.02999877929688</v>
       </c>
       <c r="F92" t="n">
-        <v>43.78988265991211</v>
+        <v>43.78989410400391</v>
       </c>
       <c r="G92" t="n">
         <v>49600</v>
@@ -3639,7 +3639,7 @@
         <v>50.38000106811523</v>
       </c>
       <c r="F93" t="n">
-        <v>45.93243026733398</v>
+        <v>45.93243789672852</v>
       </c>
       <c r="G93" t="n">
         <v>22500</v>
@@ -3674,7 +3674,7 @@
         <v>50.56999969482422</v>
       </c>
       <c r="F94" t="n">
-        <v>46.10566329956055</v>
+        <v>46.10565948486328</v>
       </c>
       <c r="G94" t="n">
         <v>22300</v>
@@ -3709,7 +3709,7 @@
         <v>49.18999862670898</v>
       </c>
       <c r="F95" t="n">
-        <v>45.43819427490234</v>
+        <v>45.43818664550781</v>
       </c>
       <c r="G95" t="n">
         <v>10600</v>
@@ -3779,7 +3779,7 @@
         <v>45.77000045776367</v>
       </c>
       <c r="F97" t="n">
-        <v>42.27904510498047</v>
+        <v>42.2790412902832</v>
       </c>
       <c r="G97" t="n">
         <v>14900</v>
@@ -3954,7 +3954,7 @@
         <v>49.2599983215332</v>
       </c>
       <c r="F102" t="n">
-        <v>45.84452819824219</v>
+        <v>45.84452056884766</v>
       </c>
       <c r="G102" t="n">
         <v>10500</v>
@@ -3989,7 +3989,7 @@
         <v>49.2599983215332</v>
       </c>
       <c r="F103" t="n">
-        <v>45.84452819824219</v>
+        <v>45.84452056884766</v>
       </c>
       <c r="G103" t="n">
         <v>3400</v>
@@ -4024,7 +4024,7 @@
         <v>48.02999877929688</v>
       </c>
       <c r="F104" t="n">
-        <v>44.69980239868164</v>
+        <v>44.69981002807617</v>
       </c>
       <c r="G104" t="n">
         <v>3100</v>
@@ -4059,7 +4059,7 @@
         <v>46.45999908447266</v>
       </c>
       <c r="F105" t="n">
-        <v>43.23866271972656</v>
+        <v>43.2386589050293</v>
       </c>
       <c r="G105" t="n">
         <v>22600</v>
@@ -4129,7 +4129,7 @@
         <v>46.40000152587891</v>
       </c>
       <c r="F107" t="n">
-        <v>43.62601852416992</v>
+        <v>43.62602233886719</v>
       </c>
       <c r="G107" t="n">
         <v>8800</v>
@@ -4164,7 +4164,7 @@
         <v>48.16999816894531</v>
       </c>
       <c r="F108" t="n">
-        <v>45.29019546508789</v>
+        <v>45.29020309448242</v>
       </c>
       <c r="G108" t="n">
         <v>23200</v>
@@ -4199,7 +4199,7 @@
         <v>50.36000061035156</v>
       </c>
       <c r="F109" t="n">
-        <v>47.34927749633789</v>
+        <v>47.34927368164062</v>
       </c>
       <c r="G109" t="n">
         <v>6600</v>
@@ -4234,7 +4234,7 @@
         <v>51.25</v>
       </c>
       <c r="F110" t="n">
-        <v>48.18606948852539</v>
+        <v>48.18606567382812</v>
       </c>
       <c r="G110" t="n">
         <v>6400</v>
@@ -4269,7 +4269,7 @@
         <v>51.75</v>
       </c>
       <c r="F111" t="n">
-        <v>48.65617370605469</v>
+        <v>48.65618133544922</v>
       </c>
       <c r="G111" t="n">
         <v>3200</v>
@@ -4409,7 +4409,7 @@
         <v>48.34000015258789</v>
       </c>
       <c r="F115" t="n">
-        <v>45.73477554321289</v>
+        <v>45.73477935791016</v>
       </c>
       <c r="G115" t="n">
         <v>32100</v>
@@ -4479,7 +4479,7 @@
         <v>49.45999908447266</v>
       </c>
       <c r="F117" t="n">
-        <v>46.79441833496094</v>
+        <v>46.79441452026367</v>
       </c>
       <c r="G117" t="n">
         <v>5800</v>
@@ -4549,7 +4549,7 @@
         <v>51.29000091552734</v>
       </c>
       <c r="F119" t="n">
-        <v>49.19844055175781</v>
+        <v>49.19843673706055</v>
       </c>
       <c r="G119" t="n">
         <v>14800</v>
@@ -4619,7 +4619,7 @@
         <v>51.25</v>
       </c>
       <c r="F121" t="n">
-        <v>49.16007232666016</v>
+        <v>49.16006851196289</v>
       </c>
       <c r="G121" t="n">
         <v>22900</v>
@@ -4654,7 +4654,7 @@
         <v>49.52999877929688</v>
       </c>
       <c r="F122" t="n">
-        <v>47.51020431518555</v>
+        <v>47.51020812988281</v>
       </c>
       <c r="G122" t="n">
         <v>3600</v>
@@ -4689,7 +4689,7 @@
         <v>48.9900016784668</v>
       </c>
       <c r="F123" t="n">
-        <v>46.99222946166992</v>
+        <v>46.99223327636719</v>
       </c>
       <c r="G123" t="n">
         <v>4300</v>
@@ -4724,7 +4724,7 @@
         <v>51.95000076293945</v>
       </c>
       <c r="F124" t="n">
-        <v>49.83152389526367</v>
+        <v>49.83152770996094</v>
       </c>
       <c r="G124" t="n">
         <v>38400</v>
@@ -4759,7 +4759,7 @@
         <v>51.90000152587891</v>
       </c>
       <c r="F125" t="n">
-        <v>50.10759353637695</v>
+        <v>50.10760116577148</v>
       </c>
       <c r="G125" t="n">
         <v>12800</v>
@@ -4794,7 +4794,7 @@
         <v>53.56000137329102</v>
       </c>
       <c r="F126" t="n">
-        <v>51.71026992797852</v>
+        <v>51.71026611328125</v>
       </c>
       <c r="G126" t="n">
         <v>41400</v>
@@ -4864,7 +4864,7 @@
         <v>56.0099983215332</v>
       </c>
       <c r="F128" t="n">
-        <v>54.07565689086914</v>
+        <v>54.07565307617188</v>
       </c>
       <c r="G128" t="n">
         <v>100000</v>
@@ -4899,7 +4899,7 @@
         <v>52.31999969482422</v>
       </c>
       <c r="F129" t="n">
-        <v>50.51309204101562</v>
+        <v>50.51308822631836</v>
       </c>
       <c r="G129" t="n">
         <v>2600</v>
@@ -4934,7 +4934,7 @@
         <v>54.68999862670898</v>
       </c>
       <c r="F130" t="n">
-        <v>52.80124282836914</v>
+        <v>52.80123901367188</v>
       </c>
       <c r="G130" t="n">
         <v>5900</v>
@@ -5004,7 +5004,7 @@
         <v>53.86999893188477</v>
       </c>
       <c r="F132" t="n">
-        <v>52.08923721313477</v>
+        <v>52.0892333984375</v>
       </c>
       <c r="G132" t="n">
         <v>27600</v>
@@ -5074,7 +5074,7 @@
         <v>54.06000137329102</v>
       </c>
       <c r="F134" t="n">
-        <v>52.27295303344727</v>
+        <v>52.27295684814453</v>
       </c>
       <c r="G134" t="n">
         <v>43900</v>
@@ -5109,7 +5109,7 @@
         <v>56.38000106811523</v>
       </c>
       <c r="F135" t="n">
-        <v>54.51626205444336</v>
+        <v>54.51626586914062</v>
       </c>
       <c r="G135" t="n">
         <v>12300</v>
@@ -5144,7 +5144,7 @@
         <v>52.11000061035156</v>
       </c>
       <c r="F136" t="n">
-        <v>50.38741683959961</v>
+        <v>50.38741302490234</v>
       </c>
       <c r="G136" t="n">
         <v>11100</v>
@@ -5249,7 +5249,7 @@
         <v>53.15000152587891</v>
       </c>
       <c r="F139" t="n">
-        <v>51.55841445922852</v>
+        <v>51.55841827392578</v>
       </c>
       <c r="G139" t="n">
         <v>2600</v>
@@ -5284,7 +5284,7 @@
         <v>54.59999847412109</v>
       </c>
       <c r="F140" t="n">
-        <v>52.96498870849609</v>
+        <v>52.96499252319336</v>
       </c>
       <c r="G140" t="n">
         <v>17000</v>
@@ -5389,7 +5389,7 @@
         <v>57.34999847412109</v>
       </c>
       <c r="F143" t="n">
-        <v>56.61970520019531</v>
+        <v>56.61970901489258</v>
       </c>
       <c r="G143" t="n">
         <v>7100</v>
@@ -5424,7 +5424,7 @@
         <v>58.66999816894531</v>
       </c>
       <c r="F144" t="n">
-        <v>57.92290115356445</v>
+        <v>57.92289733886719</v>
       </c>
       <c r="G144" t="n">
         <v>25000</v>
@@ -5564,7 +5564,7 @@
         <v>52.81000137329102</v>
       </c>
       <c r="F148" t="n">
-        <v>52.13751602172852</v>
+        <v>52.13751983642578</v>
       </c>
       <c r="G148" t="n">
         <v>4100</v>
@@ -6258,28 +6258,28 @@
         <v>79.29869842529297</v>
       </c>
       <c r="D168" t="n">
-        <v>78.91000366210938</v>
+        <v>78.55999755859375</v>
       </c>
       <c r="E168" t="n">
-        <v>79.02919769287109</v>
+        <v>78.55999755859375</v>
       </c>
       <c r="F168" t="n">
-        <v>79.02919769287109</v>
+        <v>78.55999755859375</v>
       </c>
       <c r="G168" t="n">
-        <v>3538</v>
+        <v>3952</v>
       </c>
       <c r="H168" t="n">
-        <v>0.01449545757219362</v>
+        <v>0.008472349419602843</v>
       </c>
       <c r="I168" t="n">
-        <v>0.04767140386728643</v>
+        <v>0.0476659691732121</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2371508511498344</v>
+        <v>0.2298058272545305</v>
       </c>
       <c r="K168" t="n">
-        <v>0.2371508511498344</v>
+        <v>0.2298058272545305</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EIS.xlsx
+++ b/etf_dfs/EIS.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>EIS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +87,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,5863 +406,5810 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>EIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>39508</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>48.88000106811523</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>49.36999893188477</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>48.88000106811523</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>49.06999969482422</v>
       </c>
-      <c r="F2" t="n">
-        <v>37.21851348876953</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>37.21850967407227</v>
+      </c>
+      <c r="G2">
         <v>27000</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>39539</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>53.18000030517578</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>54.15999984741211</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>53.13999938964844</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>54.15999984741211</v>
       </c>
-      <c r="F3" t="n">
-        <v>41.07916259765625</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>41.07915878295898</v>
+      </c>
+      <c r="G3">
         <v>38400</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.1037293699662438</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>39569</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>58.20000076293945</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>59.97000122070312</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>58.02999877929688</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>58.61000061035156</v>
       </c>
-      <c r="F4" t="n">
-        <v>44.45439147949219</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>44.45438766479492</v>
+      </c>
+      <c r="G4">
         <v>40900</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.08216397295931843</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.01524903846257702</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>39600</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>55.13000106811523</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>57.7599983215332</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>54.45999908447266</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>54.95000076293945</v>
       </c>
-      <c r="F5" t="n">
-        <v>41.67835998535156</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>41.67835235595703</v>
+      </c>
+      <c r="G5">
         <v>66400</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-0.06244667819992633</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.09036203642468113</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>39630</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>49.90999984741211</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>50.5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>49.90000152587891</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>49.95999908447266</v>
       </c>
-      <c r="F6" t="n">
-        <v>37.89355850219727</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>37.8935546875</v>
+      </c>
+      <c r="G6">
         <v>55700</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-0.09080985640007966</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.09897883270215231</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>39661</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>48.47999954223633</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>48.47999954223633</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>47.91999816894531</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>47.93999862670898</v>
       </c>
-      <c r="F7" t="n">
-        <v>36.36143493652344</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>36.36142730712891</v>
+      </c>
+      <c r="G7">
         <v>44300</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>-0.04043235578023618</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.08842983032548704</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>39692</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>41.68000030517578</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>43.54000091552734</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>41.68000030517578</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>43.54000091552734</v>
       </c>
-      <c r="F8" t="n">
-        <v>33.02412414550781</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>33.02413558959961</v>
+      </c>
+      <c r="G8">
         <v>59800</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-0.09178134829420403</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.08724989002224891</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>39722</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>34.59999847412109</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>35.95000076293945</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>34.36000061035156</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>35.45000076293945</v>
       </c>
-      <c r="F9" t="n">
-        <v>26.8880443572998</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>26.88804626464844</v>
+      </c>
+      <c r="G9">
         <v>47000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-0.1858061548570803</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.102147322612789</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>39753</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>30.96999931335449</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>31.45000076293945</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>30.96999931335449</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>31.18000030517578</v>
       </c>
-      <c r="F10" t="n">
-        <v>23.64934349060059</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>23.64933967590332</v>
+      </c>
+      <c r="G10">
         <v>2200</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-0.1204513502360108</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.09867701238702903</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>39783</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>30.30999946594238</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>30.70000076293945</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>30.11000061035156</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>30.5</v>
       </c>
-      <c r="F11" t="n">
-        <v>23.6933422088623</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>23.69333839416504</v>
+      </c>
+      <c r="G11">
         <v>32400</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-0.02180886140218874</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.09280593244155166</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>39814</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>30.45999908447266</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>30.61000061035156</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>30.04999923706055</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>30.1299991607666</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>23.40590476989746</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>27000</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>-0.0121311750568327</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.08821085899538507</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>39845</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>30.23999977111816</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>30.78000068664551</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>30</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>30.52000045776367</v>
       </c>
-      <c r="F13" t="n">
-        <v>23.70886993408203</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>23.70886611938477</v>
+      </c>
+      <c r="G13">
         <v>17400</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.01294395313176455</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.08542593086372467</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>39873</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>33.15000152587891</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>33.59000015258789</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>32.93000030517578</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>33.15999984741211</v>
       </c>
-      <c r="F14" t="n">
-        <v>25.75969886779785</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>25.75970268249512</v>
+      </c>
+      <c r="G14">
         <v>18900</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.08650063401217523</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.08912117801105825</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>-0.3242306897566632</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>-0.3242306897566632</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>39904</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>36.34000015258789</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>36.63999938964844</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>35.97999954223633</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>35.97999954223633</v>
       </c>
-      <c r="F15" t="n">
-        <v>27.95036697387695</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15">
+        <v>27.95036888122559</v>
+      </c>
+      <c r="G15">
         <v>18400</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>0.08504221072981388</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.09093927728087636</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>-0.335672089298288</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>-0.335672089298288</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>39934</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>40.59000015258789</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>41.15999984741211</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>40.4900016784668</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>40.97000122070312</v>
       </c>
-      <c r="F16" t="n">
-        <v>31.82675933837891</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>31.82674980163574</v>
+      </c>
+      <c r="G16">
         <v>44500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>0.1386882085034247</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.09707885645350063</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>-0.3009725167368946</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>-0.3009725167368946</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>39965</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>41.63999938964844</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>41.65000152587891</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>40.72999954223633</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>41.31000137329102</v>
       </c>
-      <c r="F17" t="n">
-        <v>32.30043029785156</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>32.30041885375977</v>
+      </c>
+      <c r="G17">
         <v>19500</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.008298758663840999</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.09364598704370615</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>-0.2482256451368026</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>-0.2482256451368026</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
         <v>39995</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>46.97000122070312</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>47.54999923706055</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>46.83000183105469</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>47.29999923706055</v>
       </c>
-      <c r="F18" t="n">
-        <v>36.98402404785156</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>36.98403167724609</v>
+      </c>
+      <c r="G18">
         <v>23900</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0.1450011538281468</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.09814855405157</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>-0.05324259199674053</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>-0.05324259199674053</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
         <v>40026</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>46.90999984741211</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>47.04000091552734</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>46.43000030517578</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>46.81000137329102</v>
       </c>
-      <c r="F19" t="n">
-        <v>36.60089492797852</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>36.60090255737305</v>
+      </c>
+      <c r="G19">
         <v>82600</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-0.01035936303748619</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.09508146645143151</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-0.02357107396303526</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>-0.02357107396303526</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
         <v>40057</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>49.15999984741211</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>49.29999923706055</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>48.25</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>48.90999984741211</v>
       </c>
-      <c r="F20" t="n">
-        <v>38.24288940429688</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>38.24290084838867</v>
+      </c>
+      <c r="G20">
         <v>58200</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0.04486217501628431</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.09280578465375255</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.1233348373672105</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.1233348373672105</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
         <v>40087</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>50.34000015258789</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>50.34000015258789</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>49.2599983215332</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>49.31999969482422</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>38.56347274780273</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>41300</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0.008382740721554205</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.09019672917349957</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.3912552505890183</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>0.3912552505890183</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>40118</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>51.86000061035156</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>52.16999816894531</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>51.54999923706055</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>52.15999984741211</v>
       </c>
-      <c r="F22" t="n">
-        <v>40.78407287597656</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>40.78407669067383</v>
+      </c>
+      <c r="G22">
         <v>30800</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.05758313402597048</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.08859918989468052</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>0.6728672013115315</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>0.6728672013115315</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
         <v>40148</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>54.95999908447266</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>54.95999908447266</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>54.27000045776367</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>54.40000152587891</v>
       </c>
-      <c r="F23" t="n">
-        <v>42.95086669921875</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F23">
+        <v>42.95086288452148</v>
+      </c>
+      <c r="G23">
         <v>22500</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.04294481758089841</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.0867141070236923</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>0.7836066074058659</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0.7836066074058659</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
         <v>40179</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>54.63999938964844</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>55</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>53.86999893188477</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>54</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>42.63504028320312</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>50000</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>-0.007352969019469913</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.08469242726674754</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.7922337040857079</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.7922337040857079</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
         <v>40210</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>55.84000015258789</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>56.15999984741211</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>55.36000061035156</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>55.90999984741211</v>
       </c>
-      <c r="F25" t="n">
-        <v>44.14306640625</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>44.14306259155273</v>
+      </c>
+      <c r="G25">
         <v>284500</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.0353703675446686</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.08294391517613105</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>0.8319134668685673</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>0.8319134668685673</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
         <v>40238</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>59.13999938964844</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>59.31000137329102</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>58.77999877929688</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>58.86000061035156</v>
       </c>
-      <c r="F26" t="n">
-        <v>46.47220230102539</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>46.47219085693359</v>
+      </c>
+      <c r="G26">
         <v>112900</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>0.05276338349115561</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.08161003667268577</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>0.7750301833896163</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>0.7750301833896163</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
         <v>40269</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>55.5</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>55.81000137329102</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>55.0099983215332</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>55.0099983215332</v>
       </c>
-      <c r="F27" t="n">
-        <v>43.4324836730957</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27">
+        <v>43.43247985839844</v>
+      </c>
+      <c r="G27">
         <v>55500</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>-0.0654094843509273</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.08133533043168677</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>0.5289049199947284</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>0.5289049199947284</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
         <v>40299</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>50.47999954223633</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>50.84000015258789</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>49.72999954223633</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>50.45000076293945</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>39.83218383789062</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>203500</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-0.08289397741735205</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.08165363077138071</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>0.2313888030212179</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.2313888030212179</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
         <v>40330</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>46.08000183105469</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>46.5099983215332</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>45.40000152587891</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>45.56999969482422</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>36.69574737548828</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>129500</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>-0.09672945479319162</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.08239625732204089</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.1031226865145423</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.1031226865145423</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
         <v>40360</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>48.09999847412109</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>48.93000030517578</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>47.90000152587891</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>48.40999984741211</v>
       </c>
-      <c r="F30" t="n">
-        <v>38.98268508911133</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>38.98269653320312</v>
+      </c>
+      <c r="G30">
         <v>277700</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.06232170664048642</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.08169335793189429</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.02346724372633502</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.02346724372633502</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
         <v>40391</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>49.18999862670898</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>49.59000015258789</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>49.18000030517578</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>49.45999908447266</v>
       </c>
-      <c r="F31" t="n">
-        <v>39.82820510864258</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31">
+        <v>39.82820129394531</v>
+      </c>
+      <c r="G31">
         <v>34500</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.02168971783454121</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.08029800010687424</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.05661178452119597</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.05661178452119597</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
         <v>40422</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>55.11000061035156</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>55.59999847412109</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>54.70000076293945</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>54.90999984741211</v>
       </c>
-      <c r="F32" t="n">
-        <v>44.21687316894531</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32">
+        <v>44.21687698364258</v>
+      </c>
+      <c r="G32">
         <v>51700</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>0.1101900700327836</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.08127273066251786</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.122674300116921</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.122674300116921</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
         <v>40452</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>57.06000137329102</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>57.2599983215332</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>56.90000152587891</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>56.97000122070312</v>
       </c>
-      <c r="F33" t="n">
-        <v>45.87571334838867</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>45.87571716308594</v>
+      </c>
+      <c r="G33">
         <v>29400</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>0.03751596028074111</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.08009442456150481</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>0.1551095209492006</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>0.1551095209492006</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
         <v>40483</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>55.43000030517578</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>55.7599983215332</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>55.15000152587891</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>55.59000015258789</v>
       </c>
-      <c r="F34" t="n">
-        <v>44.76445388793945</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>44.76445007324219</v>
+      </c>
+      <c r="G34">
         <v>22500</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-0.02422329363780562</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.07899745826906042</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0.06575920849712125</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.06575920849712125</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
         <v>40513</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>60.08000183105469</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>60.59999847412109</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>59.81000137329102</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>60.52000045776367</v>
       </c>
-      <c r="F35" t="n">
-        <v>49.52548980712891</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35">
+        <v>49.52549362182617</v>
+      </c>
+      <c r="G35">
         <v>8800</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>0.08868502053685057</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.07904349804747125</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>0.1124999772099895</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.1124999772099895</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
         <v>40544</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>56.43999862670898</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>56.90999984741211</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>56.27000045776367</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>56.90999984741211</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>46.57131958007812</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>67500</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-0.05964971221160098</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.07873374753043852</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0.0538888860631872</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.0538888860631872</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
         <v>40575</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>56.52999877929688</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>56.9900016784668</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>56.52999877929688</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>56.72000122070312</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>46.41582489013672</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>18100</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-0.003338580692644699</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.07758858456318871</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.01448759390988452</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>0.01448759390988452</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
         <v>40603</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>59</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>59.38999938964844</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>59</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>59.06999969482422</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>48.33891677856445</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>13100</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>0.04143156600044873</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.07668571657237087</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>0.003567772380140388</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>0.003567772380140388</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
         <v>40634</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>59.06999969482422</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>59.56000137329102</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>59</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>59.25</v>
       </c>
-      <c r="F39" t="n">
-        <v>48.4862060546875</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39">
+        <v>48.48619842529297</v>
+      </c>
+      <c r="G39">
         <v>16000</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>0.003047237279595771</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>0.07561764308223666</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>0.07707692797378396</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>0.07707692797378396</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
         <v>40664</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>57.38000106811523</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>57.38000106811523</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>56.97999954223633</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>57.20999908447266</v>
       </c>
-      <c r="F40" t="n">
-        <v>46.81681442260742</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>46.81681060791016</v>
+      </c>
+      <c r="G40">
         <v>21000</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>-0.03443039519877378</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>0.07490470684336727</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>0.1339940182220789</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>0.1339940182220789</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
         <v>40695</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>54.31999969482422</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>54.81000137329102</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>54.31999969482422</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>54.77000045776367</v>
       </c>
-      <c r="F41" t="n">
-        <v>45.46677017211914</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="F41">
+        <v>45.46676635742188</v>
+      </c>
+      <c r="G41">
         <v>30900</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>-0.04264986306163432</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>0.07433580043085387</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>0.2018872245896544</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>0.2018872245896544</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
         <v>40725</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>53.47999954223633</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>53.97000122070312</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>53.27000045776367</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>53.45000076293945</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>44.3709831237793</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>121000</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>-0.02410077932794885</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>0.07352620638311161</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>0.1041107401655315</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.1041107401655315</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
         <v>40756</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>45.7400016784668</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>46.13000106811523</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>45.43999862670898</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>45.84000015258789</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>38.05361175537109</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>53000</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-0.142376061772259</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.07615330189449983</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>-0.07319043669414904</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>-0.07319043669414904</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
         <v>40787</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>41.11999893188477</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>41.11999893188477</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>40.11999893188477</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>40.13999938964844</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>33.32181549072266</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>40300</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>-0.1243455659678409</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>0.07767412487085879</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>-0.2689856219050741</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>-0.2689856219050741</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
         <v>40817</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>45.40999984741211</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>45.43000030517578</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>44.81999969482422</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>44.81999969482422</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>37.20687484741211</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>11000</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>0.1165919376267526</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.07883798528752484</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>-0.2132701643942312</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>-0.2132701643942312</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
         <v>40848</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>40.90999984741211</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>41.29999923706055</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>40.65000152587891</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>41.29999923706055</v>
       </c>
-      <c r="F46" t="n">
-        <v>34.28477478027344</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>34.2847785949707</v>
+      </c>
+      <c r="G46">
         <v>10500</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.0785363784411216</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>0.07883267799018517</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>-0.2570606381777838</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>-0.2570606381777838</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
         <v>40878</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>39.79999923706055</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>39.79999923706055</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>39.43000030517578</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>39.56000137329102</v>
       </c>
-      <c r="F47" t="n">
-        <v>33.33570098876953</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47">
+        <v>33.3357048034668</v>
+      </c>
+      <c r="G47">
         <v>17200</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-0.04213069965890326</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.07817457673384527</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>-0.3463317733961426</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>-0.3463317733961426</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
         <v>40909</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>42.54000091552734</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>42.54000091552734</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>42.04999923706055</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>42.18999862670898</v>
       </c>
-      <c r="F48" t="n">
-        <v>35.55189895629883</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>35.55189514160156</v>
+      </c>
+      <c r="G48">
         <v>10400</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>0.06648122250050315</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>0.07795283871719823</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>-0.2586540372547987</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>-0.2586540372547987</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
         <v>40940</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>40.47999954223633</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>40.72000122070312</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>40.29000091552734</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>40.59999847412109</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>34.21206665039062</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>658500</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>-0.03768666044898417</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>0.07729390147955302</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>-0.2842031452689415</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>-0.2842031452689415</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
         <v>40969</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>42.75</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>43.22999954223633</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>42.72999954223633</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>43.06999969482422</v>
       </c>
-      <c r="F50" t="n">
-        <v>36.29343795776367</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F50">
+        <v>36.2934455871582</v>
+      </c>
+      <c r="G50">
         <v>4700</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>0.06083747077669299</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.07698729041746055</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>-0.2708650767337305</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>-0.2708650767337305</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
         <v>41000</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>43.72000122070312</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>43.84999847412109</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>43.09999847412109</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>43.65999984741211</v>
       </c>
-      <c r="F51" t="n">
-        <v>36.79060363769531</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="F51">
+        <v>36.79062271118164</v>
+      </c>
+      <c r="G51">
         <v>80000</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>0.01369863377683722</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.07620540191349146</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>-0.2631223654445214</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>-0.2631223654445214</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
         <v>41030</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>38.13999938964844</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>38.13999938964844</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>37.54999923706055</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>37.83000183105469</v>
       </c>
-      <c r="F52" t="n">
-        <v>31.87789535522461</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52">
+        <v>31.87788581848145</v>
+      </c>
+      <c r="G52">
         <v>29300</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>-0.1335317919544836</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>0.07776940393913007</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>-0.3387519238516801</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>-0.3387519238516801</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
         <v>41061</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>36.68000030517578</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>36.79999923706055</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>36.59000015258789</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>36.79999923706055</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>31.43024253845215</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>39300</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>-0.02722713571609214</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.07706767591055613</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>-0.3280993439932658</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>-0.3280993439932658</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
         <v>41091</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>37.0099983215332</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>37.13999938964844</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>37</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>37.04000091552734</v>
       </c>
-      <c r="F54" t="n">
-        <v>31.6352367401123</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>31.63522720336914</v>
+      </c>
+      <c r="G54">
         <v>8600</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>0.006521784876155623</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.07631900197792967</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>-0.3070158954757263</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>-0.3070158954757263</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
         <v>41122</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>37.0099983215332</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>37.20000076293945</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>36.86999893188477</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>36.97999954223633</v>
       </c>
-      <c r="F55" t="n">
-        <v>31.58397483825684</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="F55">
+        <v>31.58398056030273</v>
+      </c>
+      <c r="G55">
         <v>19100</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>-0.001619907446218871</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.07558169698724969</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>-0.1932809899838399</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>-0.1932809899838399</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
         <v>41153</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>40.20000076293945</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>40.58000183105469</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>40.20000076293945</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>40.47999954223633</v>
       </c>
-      <c r="F56" t="n">
-        <v>34.57327270507812</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>34.57326507568359</v>
+      </c>
+      <c r="G56">
         <v>9000</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>0.094645755633461</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>0.07602282059129481</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>0.008470357692022645</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>0.008470357692022645</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
         <v>41183</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>41.88000106811523</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>41.88000106811523</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>41.45000076293945</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>41.59000015258789</v>
       </c>
-      <c r="F57" t="n">
-        <v>35.52129364013672</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>35.52130889892578</v>
+      </c>
+      <c r="G57">
         <v>43700</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>0.02742096400454264</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.07541082239896679</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>-0.07206603222287233</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>-0.07206603222287233</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
         <v>41214</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>42.7599983215332</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>43.27000045776367</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>42.63000106811523</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>43.0099983215332</v>
       </c>
-      <c r="F58" t="n">
-        <v>36.73409652709961</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58">
+        <v>36.73410415649414</v>
+      </c>
+      <c r="G58">
         <v>28700</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>0.03414277864235493</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.07486261034559399</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>0.04140433695064538</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>0.04140433695064538</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
         <v>41244</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>41.7599983215332</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>42.0099983215332</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>41.58000183105469</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>41.90000152587891</v>
       </c>
-      <c r="F59" t="n">
-        <v>36.2432861328125</v>
-      </c>
-      <c r="G59" t="n">
+      <c r="F59">
+        <v>36.24328231811523</v>
+      </c>
+      <c r="G59">
         <v>4500</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.02580787814396568</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>0.07427266219473436</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>0.05915065903328665</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>0.05915065903328665</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
         <v>41275</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>42.20999908447266</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>42.77999877929688</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>42.20999908447266</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>42.54000091552734</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>36.79688262939453</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>6300</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>0.01527444788404475</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.07364561594434699</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>0.008295859213344192</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>0.008295859213344192</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
         <v>41306</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>43.45000076293945</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>43.72000122070312</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>43.45000076293945</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>43.72000122070312</v>
       </c>
-      <c r="F61" t="n">
-        <v>37.81757736206055</v>
-      </c>
-      <c r="G61" t="n">
+      <c r="F61">
+        <v>37.81757354736328</v>
+      </c>
+      <c r="G61">
         <v>16900</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>0.02773860554255592</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.07309561538617998</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>0.07684736117836932</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>0.07684736117836932</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
         <v>41334</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>45.04000091552734</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>45.22000122070312</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>44.81000137329102</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>45.18999862670898</v>
       </c>
-      <c r="F62" t="n">
-        <v>39.08911895751953</v>
-      </c>
-      <c r="G62" t="n">
+      <c r="F62">
+        <v>39.089111328125</v>
+      </c>
+      <c r="G62">
         <v>12500</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>0.03362299553893333</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>0.07259789494246527</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>0.04922217197367496</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>0.04922217197367496</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
         <v>41365</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>44.45000076293945</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>44.58000183105469</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>44.29000091552734</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>44.58000183105469</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>38.56147003173828</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>21900</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>-0.01349849113059642</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.07201519215714654</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>0.02107196488451457</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>0.02107196488451457</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
         <v>41395</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>44.43000030517578</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>44.52999877929688</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>44.20000076293945</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>44.20000076293945</v>
       </c>
-      <c r="F64" t="n">
-        <v>38.23277282714844</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64">
+        <v>38.2327766418457</v>
+      </c>
+      <c r="G64">
         <v>28100</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>-0.008524025403931712</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>0.07143276100789016</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>0.168384843340283</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>0.168384843340283</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
         <v>41426</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>42.79000091552734</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>43.20000076293945</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>42.77999877929688</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>42.97000122070312</v>
       </c>
-      <c r="F65" t="n">
-        <v>37.59810256958008</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65">
+        <v>37.59810638427734</v>
+      </c>
+      <c r="G65">
         <v>32100</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>-0.02782804346165646</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>0.07094654944957179</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>0.1676631008575917</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>0.1676631008575917</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
         <v>41456</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>43.90000152587891</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>44.20000076293945</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>43.90000152587891</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>44.20000076293945</v>
       </c>
-      <c r="F66" t="n">
-        <v>38.67433547973633</v>
-      </c>
-      <c r="G66" t="n">
+      <c r="F66">
+        <v>38.6743278503418</v>
+      </c>
+      <c r="G66">
         <v>17400</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>0.02862461036290842</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.07046950091981105</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>0.1933045267396472</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>0.1933045267396472</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
         <v>41487</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>42.65999984741211</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>42.65999984741211</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>42.22000122070312</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>42.22000122070312</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>36.94186019897461</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>5400</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>-0.04479636896062011</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>0.07014572306908425</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>0.1416982623940268</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>0.1416982623940268</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
         <v>41518</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>46.2400016784668</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>46.95000076293945</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>46.09999847412109</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>46.31999969482422</v>
       </c>
-      <c r="F68" t="n">
-        <v>40.5293083190918</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68">
+        <v>40.52930068969727</v>
+      </c>
+      <c r="G68">
         <v>15100</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>0.09711033528134072</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.07061978806678929</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>0.1442687801044689</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>0.1442687801044689</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
         <v>41548</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>46.25</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>46.5099983215332</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>46.02999877929688</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>46.38999938964844</v>
       </c>
-      <c r="F69" t="n">
-        <v>40.59054565429688</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="F69">
+        <v>40.59055328369141</v>
+      </c>
+      <c r="G69">
         <v>12300</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>0.001511219673691944</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>0.07008274900715929</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>0.1154123399723497</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>0.1154123399723497</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
         <v>41579</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>47.9900016784668</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>48.25</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>47.9900016784668</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>48.22000122070312</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>42.1917724609375</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>8500</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>0.03944819692028356</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0.06970886614381776</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>0.1211346919900136</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>0.1211346919900136</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
         <v>41609</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>48.79000091552734</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>48.79000091552734</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>48.13000106811523</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>48.41999816894531</v>
       </c>
-      <c r="F71" t="n">
-        <v>42.87405776977539</v>
-      </c>
-      <c r="G71" t="n">
+      <c r="F71">
+        <v>42.87405395507812</v>
+      </c>
+      <c r="G71">
         <v>20100</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>0.004147593180821474</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.06919480874246643</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>0.1556085061008752</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>0.1556085061008752</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
         <v>41640</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>47.65999984741211</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>47.93000030517578</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>47.47000122070312</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>47.58000183105469</v>
       </c>
-      <c r="F72" t="n">
-        <v>42.1302604675293</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="F72">
+        <v>42.13026428222656</v>
+      </c>
+      <c r="G72">
         <v>25700</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>-0.01734812824568355</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>0.0687313182192795</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>0.1184767467573729</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>0.1184767467573729</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
         <v>41671</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>50.43999862670898</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>51.2400016784668</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>50.43999862670898</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>50.88000106811523</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>45.05228424072266</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>14000</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>0.06935685393157542</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>0.06870623776237418</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>0.1637694338403077</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>0.1637694338403077</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
         <v>41699</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>52.06999969482422</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>52.81999969482422</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>52.06999969482422</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>52.79999923706055</v>
       </c>
-      <c r="F74" t="n">
-        <v>46.75236892700195</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74">
+        <v>46.75238418579102</v>
+      </c>
+      <c r="G74">
         <v>17800</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.03773581227671219</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>0.06834425655590096</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>0.1684001071390555</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>0.1684001071390555</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
         <v>41730</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>51.79000091552734</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>51.90000152587891</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>51.47999954223633</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>51.59000015258789</v>
       </c>
-      <c r="F75" t="n">
-        <v>45.68095779418945</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75">
+        <v>45.68097305297852</v>
+      </c>
+      <c r="G75">
         <v>30500</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-0.02291664965827034</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.06793763689781118</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>0.157245357416069</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>0.157245357416069</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
         <v>41760</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>52.18999862670898</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>52.38999938964844</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>52.13999938964844</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>52.22999954223633</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>46.24766540527344</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>9300</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>0.01240549307531524</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.06747956220473746</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>0.1816741773911872</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>0.1816741773911872</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
         <v>41791</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>52.41999816894531</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>52.41999816894531</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>52.06999969482422</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>52.22000122070312</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>46.60469818115234</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>5500</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-0.0001914287118673919</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.06702316457252432</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>0.2152664588602178</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>0.2152664588602178</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
         <v>41821</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>52.38999938964844</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>52.38999938964844</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>51.61999893188477</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>51.77999877929688</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>46.21201324462891</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>20100</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-0.008425937018779805</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>0.06658793441516285</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>0.1714931648307358</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>0.1714931648307358</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
         <v>41852</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>50.70000076293945</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>50.86999893188477</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>50.63000106811523</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>50.79999923706055</v>
       </c>
-      <c r="F79" t="n">
-        <v>45.33738327026367</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="F79">
+        <v>45.3373908996582</v>
+      </c>
+      <c r="G79">
         <v>19400</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-0.01892621794784899</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.06619529295147714</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>0.2032211693103909</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>0.2032211693103909</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
         <v>41883</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>50.36000061035156</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>51.13000106811523</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>50.36000061035156</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>50.93000030517578</v>
       </c>
-      <c r="F80" t="n">
-        <v>45.45341110229492</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>45.45341491699219</v>
+      </c>
+      <c r="G80">
         <v>41800</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>0.002559076182434117</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>0.06576404945033304</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>0.09952505701045333</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>0.09952505701045333</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
         <v>41913</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>49.15999984741211</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>49.15999984741211</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>48.7599983215332</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>48.88999938964844</v>
       </c>
-      <c r="F81" t="n">
-        <v>43.63277816772461</v>
-      </c>
-      <c r="G81" t="n">
+      <c r="F81">
+        <v>43.63278198242188</v>
+      </c>
+      <c r="G81">
         <v>9500</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>-0.04005499515616595</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>0.06551751678324966</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>0.05389092547730989</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>0.05389092547730989</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
         <v>41944</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>48.25</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>48.59000015258789</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>48.25</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>48.47999954223633</v>
       </c>
-      <c r="F82" t="n">
-        <v>43.26686477661133</v>
-      </c>
-      <c r="G82" t="n">
+      <c r="F82">
+        <v>43.26686859130859</v>
+      </c>
+      <c r="G82">
         <v>9200</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>-0.00838617002517128</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.06511209817317629</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>0.005391918601229229</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>0.005391918601229229</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
         <v>41974</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>46.9900016784668</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>47.18000030517578</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>46.77000045776367</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>46.77999877929688</v>
       </c>
-      <c r="F83" t="n">
-        <v>42.15464019775391</v>
-      </c>
-      <c r="G83" t="n">
+      <c r="F83">
+        <v>42.15464401245117</v>
+      </c>
+      <c r="G83">
         <v>31000</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>-0.03506602266896464</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>0.06483463595486484</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>-0.03387029020377508</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>-0.03387029020377508</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
         <v>42005</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>46.2599983215332</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>46.45000076293945</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>46.02000045776367</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>46.16999816894531</v>
       </c>
-      <c r="F84" t="n">
-        <v>41.60496139526367</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="F84">
+        <v>41.60495758056641</v>
+      </c>
+      <c r="G84">
         <v>26300</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-0.01303977396898792</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>0.06445323324810801</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>-0.02963437595307294</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>-0.02963437595307294</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
         <v>42036</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>47.72999954223633</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>47.90000152587891</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>47.61000061035156</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>47.68999862670898</v>
       </c>
-      <c r="F85" t="n">
-        <v>42.97466278076172</v>
-      </c>
-      <c r="G85" t="n">
+      <c r="F85">
+        <v>42.97466659545898</v>
+      </c>
+      <c r="G85">
         <v>78300</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>0.03292182191997672</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>0.06415274203448819</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>-0.06269658754793772</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-0.06269658754793772</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
         <v>42064</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>50.72000122070312</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>50.97999954223633</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>50.43000030517578</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>50.59000015258789</v>
       </c>
-      <c r="F86" t="n">
-        <v>45.58793258666992</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="F86">
+        <v>45.58792877197266</v>
+      </c>
+      <c r="G86">
         <v>14700</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>0.06080942774979969</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>0.06409019562939405</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>-0.04185604387133113</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>-0.04185604387133113</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
         <v>42095</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>52.33000183105469</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>52.86000061035156</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>51.61000061035156</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>51.65999984741211</v>
       </c>
-      <c r="F87" t="n">
-        <v>46.55213165283203</v>
-      </c>
-      <c r="G87" t="n">
+      <c r="F87">
+        <v>46.55213928222656</v>
+      </c>
+      <c r="G87">
         <v>9800</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>0.02115041888904767</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.06373993223063457</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>0.00135684618370191</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>0.00135684618370191</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
         <v>42125</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>51.77000045776367</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>51.77000045776367</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>51.40999984741211</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>51.54999923706055</v>
       </c>
-      <c r="F88" t="n">
-        <v>46.45301055908203</v>
-      </c>
-      <c r="G88" t="n">
+      <c r="F88">
+        <v>46.4530143737793</v>
+      </c>
+      <c r="G88">
         <v>45600</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>-0.002129318828425708</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>0.06336597378304622</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>-0.01301934350249978</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>-0.01301934350249978</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
         <v>42156</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>52</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>52</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>51.40000152587891</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>51.43000030517578</v>
       </c>
-      <c r="F89" t="n">
-        <v>46.88973999023438</v>
-      </c>
-      <c r="G89" t="n">
+      <c r="F89">
+        <v>46.88973617553711</v>
+      </c>
+      <c r="G89">
         <v>10200</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>-0.00232781636587287</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>0.06299869580335281</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>-0.01512832051053536</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>-0.01512832051053536</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
         <v>42186</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>55.0099983215332</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>55.40000152587891</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>54.9900016784668</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>55.20999908447266</v>
       </c>
-      <c r="F90" t="n">
-        <v>50.33603286743164</v>
-      </c>
-      <c r="G90" t="n">
+      <c r="F90">
+        <v>50.33604049682617</v>
+      </c>
+      <c r="G90">
         <v>57000</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>0.07349793421868722</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>0.06309076086319054</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>0.06624179965309684</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>0.06624179965309684</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
         <v>42217</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>50.47999954223633</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>50.54000091552734</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>49.97000122070312</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>50.27000045776367</v>
       </c>
-      <c r="F91" t="n">
-        <v>45.83213424682617</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91">
+        <v>45.83213806152344</v>
+      </c>
+      <c r="G91">
         <v>25600</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>-0.08947652071413126</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>0.06349809167413416</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>-0.01043304699324132</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>-0.01043304699324132</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
         <v>42248</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>47.63999938964844</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>48.02999877929688</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>47.59000015258789</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>48.02999877929688</v>
       </c>
-      <c r="F92" t="n">
-        <v>43.78989410400391</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="F92">
+        <v>43.78988265991211</v>
+      </c>
+      <c r="G92">
         <v>49600</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>-0.04455941233477456</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>0.06333323456280858</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>-0.05694092889263525</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>-0.05694092889263525</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
         <v>42278</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>50.77999877929688</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>50.88000106811523</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>50.36999893188477</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>50.38000106811523</v>
       </c>
-      <c r="F93" t="n">
-        <v>45.93243789672852</v>
-      </c>
-      <c r="G93" t="n">
+      <c r="F93">
+        <v>45.93243408203125</v>
+      </c>
+      <c r="G93">
         <v>22500</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>0.04892780238485694</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.06317406529185292</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>0.03047661478969621</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>0.03047661478969621</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
         <v>42309</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>50.45000076293945</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>50.61999893188477</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>50.11999893188477</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>50.56999969482422</v>
       </c>
-      <c r="F94" t="n">
-        <v>46.10565948486328</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="F94">
+        <v>46.10565185546875</v>
+      </c>
+      <c r="G94">
         <v>22300</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>0.003771310493862368</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.06282618489788573</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>0.04311056461060936</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>0.04311056461060936</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:11">
+      <c r="A95" s="2">
         <v>42339</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>49.52000045776367</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>49.93999862670898</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>49.18000030517578</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>49.18999862670898</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>45.43818664550781</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>10600</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>-0.0272889277524847</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>0.06255914410349578</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>0.05151774070756687</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>0.05151774070756687</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:11">
+      <c r="A96" s="2">
         <v>42370</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>45.84000015258789</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>46.08000183105469</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>45.79999923706055</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>46.06999969482422</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>42.55615615844727</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>23800</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>-0.06342750597660474</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.06258668531786694</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>-0.002165875635411152</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>-0.002165875635411152</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:11">
+      <c r="A97" s="2">
         <v>42401</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>46.13000106811523</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>46.13000106811523</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>45.72999954223633</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>45.77000045776367</v>
       </c>
-      <c r="F97" t="n">
-        <v>42.2790412902832</v>
-      </c>
-      <c r="G97" t="n">
+      <c r="F97">
+        <v>42.27903747558594</v>
+      </c>
+      <c r="G97">
         <v>14900</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>-0.006511813306876335</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>0.06225804118597594</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>-0.0402599753456484</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>-0.0402599753456484</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:11">
+      <c r="A98" s="2">
         <v>42430</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>47.66999816894531</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>48.13000106811523</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>47.66999816894531</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>47.79999923706055</v>
       </c>
-      <c r="F98" t="n">
-        <v>44.15420532226562</v>
-      </c>
-      <c r="G98" t="n">
+      <c r="F98">
+        <v>44.15421295166016</v>
+      </c>
+      <c r="G98">
         <v>234800</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>0.04435216864745595</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>0.06208580767062141</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>-0.0551492569106985</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>-0.0551492569106985</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:11">
+      <c r="A99" s="2">
         <v>42461</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>48.79000091552734</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>48.79000091552734</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>48.15000152587891</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>48.29000091552734</v>
       </c>
-      <c r="F99" t="n">
-        <v>44.60683059692383</v>
-      </c>
-      <c r="G99" t="n">
+      <c r="F99">
+        <v>44.60684204101562</v>
+      </c>
+      <c r="G99">
         <v>17400</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>0.01025108130309094</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>0.06176775254703872</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>-0.06523420328762519</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>-0.06523420328762519</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
         <v>42491</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>47.52999877929688</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>47.86999893188477</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>47.52000045776367</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>47.79999923706055</v>
       </c>
-      <c r="F100" t="n">
-        <v>44.15420532226562</v>
-      </c>
-      <c r="G100" t="n">
+      <c r="F100">
+        <v>44.15421295166016</v>
+      </c>
+      <c r="G100">
         <v>44100</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>-0.01014706293594703</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>0.06146029161340776</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>-0.07274490893307395</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>-0.07274490893307395</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:11">
+      <c r="A101" s="2">
         <v>42522</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>46.40000152587891</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>46.88000106811523</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>46.40000152587891</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>46.84999847412109</v>
       </c>
-      <c r="F101" t="n">
-        <v>43.60162734985352</v>
-      </c>
-      <c r="G101" t="n">
+      <c r="F101">
+        <v>43.60162353515625</v>
+      </c>
+      <c r="G101">
         <v>25600</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>-0.01987449326574242</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>0.06118410071882513</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>-0.08905311693326523</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>-0.08905311693326523</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:11">
+      <c r="A102" s="2">
         <v>42552</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>49.13999938964844</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>49.29999923706055</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>49.08000183105469</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>49.2599983215332</v>
       </c>
-      <c r="F102" t="n">
-        <v>45.84452056884766</v>
-      </c>
-      <c r="G102" t="n">
+      <c r="F102">
+        <v>45.84452819824219</v>
+      </c>
+      <c r="G102">
         <v>10500</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>0.05144076682827081</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>0.06107952800014923</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>-0.1077703470676716</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>-0.1077703470676716</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:11">
+      <c r="A103" s="2">
         <v>42583</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>49.2599983215332</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>49.34999847412109</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>49.09999847412109</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>49.2599983215332</v>
       </c>
-      <c r="F103" t="n">
-        <v>45.84452056884766</v>
-      </c>
-      <c r="G103" t="n">
+      <c r="F103">
+        <v>45.84452819824219</v>
+      </c>
+      <c r="G103">
         <v>3400</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>0.06077366125645916</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>-0.02009154818049108</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>-0.02009154818049108</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:11">
+      <c r="A104" s="2">
         <v>42614</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>47.91999816894531</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>48.02999877929688</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>47.88000106811523</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>48.02999877929688</v>
       </c>
-      <c r="F104" t="n">
-        <v>44.69981002807617</v>
-      </c>
-      <c r="G104" t="n">
+      <c r="F104">
+        <v>44.69980621337891</v>
+      </c>
+      <c r="G104">
         <v>3100</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>-0.02496954088808112</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>0.06053052501128205</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>0</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:11">
+      <c r="A105" s="2">
         <v>42644</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>46.16999816894531</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>46.52000045776367</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>46.16999816894531</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>46.45999908447266</v>
       </c>
-      <c r="F105" t="n">
-        <v>43.2386589050293</v>
-      </c>
-      <c r="G105" t="n">
+      <c r="F105">
+        <v>43.23866271972656</v>
+      </c>
+      <c r="G105">
         <v>22600</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>-0.03268789787063164</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>0.06032792325316667</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>-0.07780869195184459</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>-0.07780869195184459</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:11">
+      <c r="A106" s="2">
         <v>42675</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>46.70999908447266</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>46.9900016784668</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>46.54999923706055</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>46.77000045776367</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>43.52717208862305</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>86000</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>0.006672436061123888</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>0.06003666815402472</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>-0.07514335099846703</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>-0.07514335099846703</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:11">
+      <c r="A107" s="2">
         <v>42705</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>46.5</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>46.52000045776367</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>46.34999847412109</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>46.40000152587891</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>43.62602233886719</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>8800</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>-0.007911031179460792</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>0.05975416779225932</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>-0.05671878793904206</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>-0.05671878793904206</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:11">
+      <c r="A108" s="2">
         <v>42736</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>47.81999969482422</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>48.25</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>47.43999862670898</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>48.16999816894531</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>45.29020309448242</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>23200</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>0.03814647812197203</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>0.05957675912870444</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>0.04558277595033333</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>0.04558277595033333</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:11">
+      <c r="A109" s="2">
         <v>42767</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>50.27000045776367</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>50.47000122070312</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>50.27000045776367</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>50.36000061035156</v>
       </c>
-      <c r="F109" t="n">
-        <v>47.34927368164062</v>
-      </c>
-      <c r="G109" t="n">
+      <c r="F109">
+        <v>47.34928131103516</v>
+      </c>
+      <c r="G109">
         <v>6600</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>0.04546403414269018</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>0.05944644269400583</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>0.1002840311706688</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>0.1002840311706688</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:11">
+      <c r="A110" s="2">
         <v>42795</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>51.29000091552734</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>51.31999969482422</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>51.13000106811523</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>51.25</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>48.18606567382812</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>6400</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>0.01767274382172057</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>0.05918717310569424</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>0.07217574933065229</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>0.07217574933065229</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:11">
+      <c r="A111" s="2">
         <v>42826</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>51.93999862670898</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>51.93999862670898</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>51.7400016784668</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>51.75</v>
       </c>
-      <c r="F111" t="n">
-        <v>48.65618133544922</v>
-      </c>
-      <c r="G111" t="n">
+      <c r="F111">
+        <v>48.65616989135742</v>
+      </c>
+      <c r="G111">
         <v>3200</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>0.009756097560975618</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>0.05891700887926674</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>0.0716504249093961</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>0.0716504249093961</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:11">
+      <c r="A112" s="2">
         <v>42856</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>52.61000061035156</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>52.65000152587891</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>52.29999923706055</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>52.65000152587891</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>49.50237274169922</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>22400</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>0.01739133383340885</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>0.05866392909972298</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>0.1014644846491553</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>0.1014644846491553</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:11">
+      <c r="A113" s="2">
         <v>42887</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>54.11999893188477</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>54.47000122070312</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>54.11999893188477</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>54.34000015258789</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>51.41141510009766</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>10100</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>0.03209873841842725</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>0.05846479190355743</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>0.1598719727302469</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>0.1598719727302469</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:11">
+      <c r="A114" s="2">
         <v>42917</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>53.65999984741211</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>53.65999984741211</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>53.2400016784668</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>53.47000122070312</v>
       </c>
-      <c r="F114" t="n">
-        <v>50.58830261230469</v>
-      </c>
-      <c r="G114" t="n">
+      <c r="F114">
+        <v>50.58830642700195</v>
+      </c>
+      <c r="G114">
         <v>8500</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>-0.01601028578288166</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>0.05822751385856671</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>0.08546494199390975</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>0.08546494199390975</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:11">
+      <c r="A115" s="2">
         <v>42948</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>47.95000076293945</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>48.40999984741211</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>47.84999847412109</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>48.34000015258789</v>
       </c>
-      <c r="F115" t="n">
-        <v>45.73477935791016</v>
-      </c>
-      <c r="G115" t="n">
+      <c r="F115">
+        <v>45.73477554321289</v>
+      </c>
+      <c r="G115">
         <v>32100</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>-0.09594166730875142</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>0.058701646486522</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>-0.0186763743461833</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>-0.0186763743461833</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:11">
+      <c r="A116" s="2">
         <v>42979</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>49.7599983215332</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>50.15999984741211</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>49.7599983215332</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>49.97999954223633</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>47.28639602661133</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>9900</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>0.03392634225220714</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>0.05851969102190688</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>0.04059964215072998</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>0.04059964215072998</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:11">
+      <c r="A117" s="2">
         <v>43009</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>49.29999923706055</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>49.58000183105469</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>49.29999923706055</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>49.45999908447266</v>
       </c>
-      <c r="F117" t="n">
-        <v>46.79441452026367</v>
-      </c>
-      <c r="G117" t="n">
+      <c r="F117">
+        <v>46.7944221496582</v>
+      </c>
+      <c r="G117">
         <v>5800</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>-0.01040417091889401</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>0.05827373035383106</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>0.06457167583119094</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>0.06457167583119094</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:11">
+      <c r="A118" s="2">
         <v>43040</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>49.58000183105469</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>49.86000061035156</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>49.43999862670898</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>49.84000015258789</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>47.15393829345703</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>15500</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>0.007682997880089637</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>0.05802240292610684</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>0.06564036058961831</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>0.06564036058961831</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:11">
+      <c r="A119" s="2">
         <v>43070</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>51.58000183105469</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>51.65000152587891</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>51.29000091552734</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>51.29000091552734</v>
       </c>
-      <c r="F119" t="n">
-        <v>49.19843673706055</v>
-      </c>
-      <c r="G119" t="n">
+      <c r="F119">
+        <v>49.19843292236328</v>
+      </c>
+      <c r="G119">
         <v>14800</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>0.02909311313202645</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>0.05782672253386465</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>0.1053879144146388</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>0.1053879144146388</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:11">
+      <c r="A120" s="2">
         <v>43101</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>53.79000091552734</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>54.2400016784668</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>53.65000152587891</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>53.72000122070312</v>
       </c>
-      <c r="F120" t="n">
-        <v>51.52933883666992</v>
-      </c>
-      <c r="G120" t="n">
+      <c r="F120">
+        <v>51.52934265136719</v>
+      </c>
+      <c r="G120">
         <v>6300</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>0.04737766156756162</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>0.05772998717212694</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>0.1152170077377299</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>0.1152170077377299</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:11">
+      <c r="A121" s="2">
         <v>43132</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>52.09999847412109</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>52.09999847412109</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>51.25</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>51.25</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>49.16006851196289</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>22900</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>-0.04597917283276631</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>0.05765599807585027</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>0.01767274382172057</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>0.01767274382172057</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
         <v>43160</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>49.25</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>49.63000106811523</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>49.16999816894531</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>49.52999877929688</v>
       </c>
-      <c r="F122" t="n">
-        <v>47.51020812988281</v>
-      </c>
-      <c r="G122" t="n">
+      <c r="F122">
+        <v>47.51020431518555</v>
+      </c>
+      <c r="G122">
         <v>3600</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>-0.03356099942835367</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>0.05750514123788014</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122">
         <v>-0.03356099942835367</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K122">
         <v>-0.03356099942835367</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:11">
+      <c r="A123" s="2">
         <v>43191</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>49.13999938964844</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>49.36000061035156</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>48.93000030517578</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>48.9900016784668</v>
       </c>
-      <c r="F123" t="n">
-        <v>46.99223327636719</v>
-      </c>
-      <c r="G123" t="n">
+      <c r="F123">
+        <v>46.99222946166992</v>
+      </c>
+      <c r="G123">
         <v>4300</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>-0.01090242507851202</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>0.05674380671926114</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123">
         <v>-0.0533333008991923</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K123">
         <v>-0.0533333008991923</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:11">
+      <c r="A124" s="2">
         <v>43221</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>52.18000030517578</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>52.18000030517578</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>51.88000106811523</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>51.95000076293945</v>
       </c>
-      <c r="F124" t="n">
-        <v>49.83152770996094</v>
-      </c>
-      <c r="G124" t="n">
+      <c r="F124">
+        <v>49.83152389526367</v>
+      </c>
+      <c r="G124">
         <v>38400</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>0.06042047322022648</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>0.05651602908651883</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124">
         <v>-0.01329536073413751</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K124">
         <v>-0.01329536073413751</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:11">
+      <c r="A125" s="2">
         <v>43252</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>52.29999923706055</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>52.36999893188477</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>51.90000152587891</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>51.90000152587891</v>
       </c>
-      <c r="F125" t="n">
-        <v>50.10760116577148</v>
-      </c>
-      <c r="G125" t="n">
+      <c r="F125">
+        <v>50.10759353637695</v>
+      </c>
+      <c r="G125">
         <v>12800</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>-0.0009624492074351565</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>0.05621750793440122</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125">
         <v>-0.04490244055681658</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K125">
         <v>-0.04490244055681658</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:11">
+      <c r="A126" s="2">
         <v>43282</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>53.54999923706055</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>53.68999862670898</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>53.33000183105469</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>53.56000137329102</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>51.71026611328125</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>41400</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>0.03198458186141639</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>0.05564478546499414</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126">
         <v>0.001683189649022143</v>
       </c>
-      <c r="K126" t="n">
+      <c r="K126">
         <v>0.001683189649022143</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:11">
+      <c r="A127" s="2">
         <v>43313</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>56.40999984741211</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>56.7400016784668</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>56.27000045776367</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>56.59999847412109</v>
       </c>
-      <c r="F127" t="n">
-        <v>54.64527893066406</v>
-      </c>
-      <c r="G127" t="n">
+      <c r="F127">
+        <v>54.6452751159668</v>
+      </c>
+      <c r="G127">
         <v>87500</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>0.05675871962068402</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>0.05572715436037217</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127">
         <v>0.1708729477753426</v>
       </c>
-      <c r="K127" t="n">
+      <c r="K127">
         <v>0.1708729477753426</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:11">
+      <c r="A128" s="2">
         <v>43344</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>56.0099983215332</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>56.40000152587891</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>56</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>56.0099983215332</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>54.07565307617188</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>100000</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>-0.01042403124547175</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>0.05505579343122869</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128">
         <v>0.120648235984899</v>
       </c>
-      <c r="K128" t="n">
+      <c r="K128">
         <v>0.120648235984899</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:11">
+      <c r="A129" s="2">
         <v>43374</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>52.15999984741211</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>52.56000137329102</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>52.02000045776367</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>52.31999969482422</v>
       </c>
-      <c r="F129" t="n">
-        <v>50.51308822631836</v>
-      </c>
-      <c r="G129" t="n">
+      <c r="F129">
+        <v>50.51309204101562</v>
+      </c>
+      <c r="G129">
         <v>2600</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>-0.0658810701176249</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>0.05262293064685058</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129">
         <v>0.0578245180608874</v>
       </c>
-      <c r="K129" t="n">
+      <c r="K129">
         <v>0.0578245180608874</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:11">
+      <c r="A130" s="2">
         <v>43405</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>54.33000183105469</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>54.75</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>54.33000183105469</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>54.68999862670898</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>52.80123901367188</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>5900</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>0.04529814498678641</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>0.05147499653488898</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130">
         <v>0.09731136555522779</v>
       </c>
-      <c r="K130" t="n">
+      <c r="K130">
         <v>0.09731136555522779</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:11">
+      <c r="A131" s="2">
         <v>43435</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>48.41999816894531</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>48.77000045776367</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>48.2400016784668</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>48.41999816894531</v>
       </c>
-      <c r="F131" t="n">
-        <v>46.81939315795898</v>
-      </c>
-      <c r="G131" t="n">
+      <c r="F131">
+        <v>46.81938934326172</v>
+      </c>
+      <c r="G131">
         <v>44000</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>-0.1146461988518243</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131">
         <v>0.05258236398008096</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131">
         <v>-0.05595637932057784</v>
       </c>
-      <c r="K131" t="n">
+      <c r="K131">
         <v>-0.05595637932057784</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:11">
+      <c r="A132" s="2">
         <v>43466</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>53.59000015258789</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>54</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>53.59000015258789</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>53.86999893188477</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>52.0892333984375</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>27600</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>0.1125568147260871</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>0.0534608950386511</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132">
         <v>0.002792213473067351</v>
       </c>
-      <c r="K132" t="n">
+      <c r="K132">
         <v>0.002792213473067351</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:11">
+      <c r="A133" s="2">
         <v>43497</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>54.72999954223633</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>54.72999954223633</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>54.13999938964844</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>54.33000183105469</v>
       </c>
-      <c r="F133" t="n">
-        <v>52.53403091430664</v>
-      </c>
-      <c r="G133" t="n">
+      <c r="F133">
+        <v>52.53403472900391</v>
+      </c>
+      <c r="G133">
         <v>28700</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>0.008539129539459678</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133">
         <v>0.05345779047608701</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133">
         <v>0.06009759670350601</v>
       </c>
-      <c r="K133" t="n">
+      <c r="K133">
         <v>0.06009759670350601</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:11">
+      <c r="A134" s="2">
         <v>43525</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>54.04000091552734</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>54.27000045776367</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>53.93999862670898</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>54.06000137329102</v>
       </c>
-      <c r="F134" t="n">
-        <v>52.27295684814453</v>
-      </c>
-      <c r="G134" t="n">
+      <c r="F134">
+        <v>52.27295303344727</v>
+      </c>
+      <c r="G134">
         <v>43900</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>-0.004969638296778767</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>0.05295348890419545</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134">
         <v>0.09145977600725574</v>
       </c>
-      <c r="K134" t="n">
+      <c r="K134">
         <v>0.09145977600725574</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:11">
+      <c r="A135" s="2">
         <v>43556</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>56.27000045776367</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>56.43999862670898</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>56</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>56.38000106811523</v>
       </c>
-      <c r="F135" t="n">
-        <v>54.51626586914062</v>
-      </c>
-      <c r="G135" t="n">
+      <c r="F135">
+        <v>54.51626205444336</v>
+      </c>
+      <c r="G135">
         <v>12300</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>0.04291527258396344</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>0.052559753404181</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135">
         <v>0.1508470940285078</v>
       </c>
-      <c r="K135" t="n">
+      <c r="K135">
         <v>0.1508470940285078</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:11">
+      <c r="A136" s="2">
         <v>43586</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>52.13000106811523</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>52.43000030517578</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>52.04000091552734</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>52.11000061035156</v>
       </c>
-      <c r="F136" t="n">
-        <v>50.38741302490234</v>
-      </c>
-      <c r="G136" t="n">
+      <c r="F136">
+        <v>50.38741683959961</v>
+      </c>
+      <c r="G136">
         <v>11100</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>-0.07573608330735737</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136">
         <v>0.05161733053093782</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136">
         <v>0.003079881521893091</v>
       </c>
-      <c r="K136" t="n">
+      <c r="K136">
         <v>0.003079881521893091</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:11">
+      <c r="A137" s="2">
         <v>43617</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>54.20000076293945</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>54.52999877929688</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>54.20000076293945</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>54.52999877929688</v>
       </c>
-      <c r="F137" t="n">
-        <v>52.89709091186523</v>
-      </c>
-      <c r="G137" t="n">
+      <c r="F137">
+        <v>52.89708709716797</v>
+      </c>
+      <c r="G137">
         <v>4700</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>0.04644018692382401</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>0.05176534641771733</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137">
         <v>0.0506743193852619</v>
       </c>
-      <c r="K137" t="n">
+      <c r="K137">
         <v>0.0506743193852619</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:11">
+      <c r="A138" s="2">
         <v>43647</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>55.54000091552734</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>56.02999877929688</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>55.20000076293945</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>55.27999877929688</v>
       </c>
-      <c r="F138" t="n">
-        <v>53.62462997436523</v>
-      </c>
-      <c r="G138" t="n">
+      <c r="F138">
+        <v>53.62462615966797</v>
+      </c>
+      <c r="G138">
         <v>37700</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>0.01375389724535903</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I138">
         <v>0.05011404915969135</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138">
         <v>0.0321134682954578</v>
       </c>
-      <c r="K138" t="n">
+      <c r="K138">
         <v>0.0321134682954578</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:11">
+      <c r="A139" s="2">
         <v>43678</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>53.13000106811523</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>53.15000152587891</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>53.02000045776367</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>53.15000152587891</v>
       </c>
-      <c r="F139" t="n">
-        <v>51.55841827392578</v>
-      </c>
-      <c r="G139" t="n">
+      <c r="F139">
+        <v>51.55841445922852</v>
+      </c>
+      <c r="G139">
         <v>2600</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>-0.03853106549299856</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139">
         <v>0.05024092162693698</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139">
         <v>-0.06095401132951639</v>
       </c>
-      <c r="K139" t="n">
+      <c r="K139">
         <v>-0.06095401132951639</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:11">
+      <c r="A140" s="2">
         <v>43709</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>54.20999908447266</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>54.61999893188477</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>54.20999908447266</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>54.59999847412109</v>
       </c>
-      <c r="F140" t="n">
-        <v>52.96499252319336</v>
-      </c>
-      <c r="G140" t="n">
+      <c r="F140">
+        <v>52.96498870849609</v>
+      </c>
+      <c r="G140">
         <v>17000</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>0.02728122119688337</v>
       </c>
-      <c r="I140" t="n">
+      <c r="I140">
         <v>0.05014138222053502</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140">
         <v>-0.02517407408794781</v>
       </c>
-      <c r="K140" t="n">
+      <c r="K140">
         <v>-0.02517407408794781</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:11">
+      <c r="A141" s="2">
         <v>43739</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>55.72999954223633</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>55.88999938964844</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>55.70999908447266</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>55.86000061035156</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>54.18726348876953</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>6500</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>0.02307696284694361</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I141">
         <v>0.05017458388632169</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141">
         <v>0.0676605683519822</v>
       </c>
-      <c r="K141" t="n">
+      <c r="K141">
         <v>0.0676605683519822</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:11">
+      <c r="A142" s="2">
         <v>43770</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>58.84999847412109</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>58.9900016784668</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>58.65000152587891</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>58.79000091552734</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>57.02952194213867</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>2100</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>0.05245256486146221</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I142">
         <v>0.05012924953804374</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142">
         <v>0.07496804519603772</v>
       </c>
-      <c r="K142" t="n">
+      <c r="K142">
         <v>0.07496804519603772</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:11">
+      <c r="A143" s="2">
         <v>43800</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>57.31999969482422</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>57.54999923706055</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>57.25</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>57.34999847412109</v>
       </c>
-      <c r="F143" t="n">
-        <v>56.61970901489258</v>
-      </c>
-      <c r="G143" t="n">
+      <c r="F143">
+        <v>56.61970520019531</v>
+      </c>
+      <c r="G143">
         <v>7100</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143">
         <v>-0.02449400270422386</v>
       </c>
-      <c r="I143" t="n">
+      <c r="I143">
         <v>0.05004728195411702</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143">
         <v>0.1844279356231602</v>
       </c>
-      <c r="K143" t="n">
+      <c r="K143">
         <v>0.1844279356231602</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:11">
+      <c r="A144" s="2">
         <v>43831</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>59.27000045776367</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>59.41999816894531</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>58.5</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>58.66999816894531</v>
       </c>
-      <c r="F144" t="n">
-        <v>57.92289733886719</v>
-      </c>
-      <c r="G144" t="n">
+      <c r="F144">
+        <v>57.92290115356445</v>
+      </c>
+      <c r="G144">
         <v>25000</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144">
         <v>0.02301656024315091</v>
       </c>
-      <c r="I144" t="n">
+      <c r="I144">
         <v>0.05007789621252092</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144">
         <v>0.08910338467112</v>
       </c>
-      <c r="K144" t="n">
+      <c r="K144">
         <v>0.08910338467112</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:11">
+      <c r="A145" s="2">
         <v>43862</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>54.52000045776367</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>55.29999923706055</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>53.84000015258789</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>54.97000122070312</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>54.27001571655273</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>41400</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145">
         <v>-0.06306454855491439</v>
       </c>
-      <c r="I145" t="n">
+      <c r="I145">
         <v>0.05033146260601953</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145">
         <v>0.01177985216416122</v>
       </c>
-      <c r="K145" t="n">
+      <c r="K145">
         <v>0.01177985216416122</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:11">
+      <c r="A146" s="2">
         <v>43891</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>44.68000030517578</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>45.79000091552734</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>44.68000030517578</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>44.90000152587891</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>44.3282470703125</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>22100</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146">
         <v>-0.1831908217428163</v>
       </c>
-      <c r="I146" t="n">
+      <c r="I146">
         <v>0.05284374514924988</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146">
         <v>-0.1694413543233411</v>
       </c>
-      <c r="K146" t="n">
+      <c r="K146">
         <v>-0.1694413543233411</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:11">
+      <c r="A147" s="2">
         <v>43922</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>50.54999923706055</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>50.66999816894531</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>50.02999877929688</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>50.40000152587891</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>49.75821304321289</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>11400</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147">
         <v>0.1224944279084261</v>
       </c>
-      <c r="I147" t="n">
+      <c r="I147">
         <v>0.05369134229051042</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147">
         <v>-0.1060659707156022</v>
       </c>
-      <c r="K147" t="n">
+      <c r="K147">
         <v>-0.1060659707156022</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:11">
+      <c r="A148" s="2">
         <v>43952</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>52.68999862670898</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>53.0099983215332</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>52.38000106811523</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>52.81000137329102</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>52.13751983642578</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>4100</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148">
         <v>0.04781745584223129</v>
       </c>
-      <c r="I148" t="n">
+      <c r="I148">
         <v>0.05330503475348284</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148">
         <v>0.01343313672501467</v>
       </c>
-      <c r="K148" t="n">
+      <c r="K148">
         <v>0.01343313672501467</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:11">
+      <c r="A149" s="2">
         <v>43983</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>50.84000015258789</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>51.81000137329102</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>50.84000015258789</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>51.79000091552734</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>51.23456954956055</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>5100</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149">
         <v>-0.01931453193030108</v>
       </c>
-      <c r="I149" t="n">
+      <c r="I149">
         <v>0.05256562847609886</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149">
         <v>-0.05024753209438571</v>
       </c>
-      <c r="K149" t="n">
+      <c r="K149">
         <v>-0.05024753209438571</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:11">
+      <c r="A150" s="2">
         <v>44013</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>54.93999862670898</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>55.11000061035156</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>54.52999877929688</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>55.08000183105469</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>54.48928451538086</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>5800</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150">
         <v>0.06352579373175793</v>
       </c>
-      <c r="I150" t="n">
+      <c r="I150">
         <v>0.05257726365222487</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150">
         <v>-0.003617889881667113</v>
       </c>
-      <c r="K150" t="n">
+      <c r="K150">
         <v>-0.003617889881667113</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:11">
+      <c r="A151" s="2">
         <v>44044</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>56.36999893188477</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>56.79000091552734</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>56.36999893188477</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>56.43000030517578</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>55.82480621337891</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>9800</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151">
         <v>0.02450977540381905</v>
       </c>
-      <c r="I151" t="n">
+      <c r="I151">
         <v>0.05258655293733532</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151">
         <v>0.06171211072684235</v>
       </c>
-      <c r="K151" t="n">
+      <c r="K151">
         <v>0.06171211072684235</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:11">
+      <c r="A152" s="2">
         <v>44075</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>52.04999923706055</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>52.79000091552734</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>51.81999969482422</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>52.43000030517578</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>51.86770248413086</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>26800</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152">
         <v>-0.07088428102725208</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152">
         <v>0.05206581340130886</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152">
         <v>-0.03974355731848289</v>
       </c>
-      <c r="K152" t="n">
+      <c r="K152">
         <v>-0.03974355731848289</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:11">
+      <c r="A153" s="2">
         <v>44105</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>53.13999938964844</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>53.2400016784668</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>52.36000061035156</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>52.36999893188477</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>51.80834579467773</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>5600</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153">
         <v>-0.001144409173026273</v>
       </c>
-      <c r="I153" t="n">
+      <c r="I153">
         <v>0.05195740537194495</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153">
         <v>-0.06247765199308031</v>
       </c>
-      <c r="K153" t="n">
+      <c r="K153">
         <v>-0.06247765199308031</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:11">
+      <c r="A154" s="2">
         <v>44136</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>59.25</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>59.25</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>58.65999984741211</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>58.84999847412109</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>58.21884918212891</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>14000</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154">
         <v>0.1237349565476327</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154">
         <v>0.05310464121301266</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154">
         <v>0.001020540188117369</v>
       </c>
-      <c r="K154" t="n">
+      <c r="K154">
         <v>0.001020540188117369</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:11">
+      <c r="A155" s="2">
         <v>44166</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>64.26000213623047</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>64.26000213623047</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>63.77999877929688</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>64.11000061035156</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>63.42243957519531</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>4500</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155">
         <v>0.08937981771645287</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155">
         <v>0.05311421965883408</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155">
         <v>0.1178727518062774</v>
       </c>
-      <c r="K155" t="n">
+      <c r="K155">
         <v>0.1178727518062774</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:11">
+      <c r="A156" s="2">
         <v>44197</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>64.87000274658203</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>64.87000274658203</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>63.41999816894531</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>63.88000106811523</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>63.19490814208984</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>19700</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156">
         <v>-0.003587576665834424</v>
       </c>
-      <c r="I156" t="n">
+      <c r="I156">
         <v>0.05281392785774018</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156">
         <v>0.08880182481286725</v>
       </c>
-      <c r="K156" t="n">
+      <c r="K156">
         <v>0.08880182481286725</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:11">
+      <c r="A157" s="2">
         <v>44228</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>64.51000213623047</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>64.80000305175781</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>63.54999923706055</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>64.22000122070312</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>63.5312614440918</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>33400</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157">
         <v>0.005322481949011637</v>
       </c>
-      <c r="I157" t="n">
+      <c r="I157">
         <v>0.05281197223058509</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157">
         <v>0.1682736000470781</v>
       </c>
-      <c r="K157" t="n">
+      <c r="K157">
         <v>0.1682736000470781</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:11">
+      <c r="A158" s="2">
         <v>44256</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>63.90999984741211</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>64.69999694824219</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>63.90999984741211</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>64.5</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>63.80825805664062</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>3200</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158">
         <v>0.004359993366157333</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158">
         <v>0.05269029882171521</v>
       </c>
-      <c r="J158" t="n">
+      <c r="J158">
         <v>0.4365255636533618</v>
       </c>
-      <c r="K158" t="n">
+      <c r="K158">
         <v>0.4365255636533618</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:11">
+      <c r="A159" s="2">
         <v>44287</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>68.77999877929688</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>68.77999877929688</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>68.29000091552734</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>68.41999816894531</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>67.68621063232422</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>2100</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159">
         <v>0.06077516541000483</v>
       </c>
-      <c r="I159" t="n">
+      <c r="I159">
         <v>0.05296150041913519</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159">
         <v>0.3575396051092117</v>
       </c>
-      <c r="K159" t="n">
+      <c r="K159">
         <v>0.3575396051092117</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:11">
+      <c r="A160" s="2">
         <v>44317</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>68.59999847412109</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>68.94999694824219</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>68.59999847412109</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>68.66000366210938</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>67.92364501953125</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>2400</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H160">
         <v>0.003507826652836776</v>
       </c>
-      <c r="I160" t="n">
+      <c r="I160">
         <v>0.05285159677980428</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160">
         <v>0.3001325861891493</v>
       </c>
-      <c r="K160" t="n">
+      <c r="K160">
         <v>0.3001325861891493</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:11">
+      <c r="A161" s="2">
         <v>44348</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>70.11000061035156</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>70.11000061035156</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>69.61000061035156</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>69.62999725341797</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>69.00186157226562</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>9200</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H161">
         <v>0.01412749110941114</v>
       </c>
-      <c r="I161" t="n">
+      <c r="I161">
         <v>0.05269398306851396</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161">
         <v>0.3444679672238036</v>
       </c>
-      <c r="K161" t="n">
+      <c r="K161">
         <v>0.3444679672238036</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:11">
+      <c r="A162" s="2">
         <v>44378</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>71</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>71.06999969482422</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>70.73999786376953</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>70.79000091552734</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>70.15139770507812</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>6100</v>
       </c>
-      <c r="H162" t="n">
+      <c r="H162">
         <v>0.01665953910478479</v>
       </c>
-      <c r="I162" t="n">
+      <c r="I162">
         <v>0.05264651647683378</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162">
         <v>0.2852214699022613</v>
       </c>
-      <c r="K162" t="n">
+      <c r="K162">
         <v>0.2852214699022613</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:11">
+      <c r="A163" s="2">
         <v>44409</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>72.37000274658203</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>72.58000183105469</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>72.06999969482422</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>72.16000366210938</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>71.50904083251953</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>3700</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H163">
         <v>0.01935305451142511</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I163">
         <v>0.05091600172706864</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163">
         <v>0.2787524946281248</v>
       </c>
-      <c r="K163" t="n">
+      <c r="K163">
         <v>0.2787524946281248</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:11">
+      <c r="A164" s="2">
         <v>44440</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>72.01000213623047</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>72.05999755859375</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>71.5</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>71.59999847412109</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>70.95408630371094</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>28700</v>
       </c>
-      <c r="H164" t="n">
+      <c r="H164">
         <v>-0.007760603652551268</v>
       </c>
-      <c r="I164" t="n">
+      <c r="I164">
         <v>0.04951845313061537</v>
       </c>
-      <c r="J164" t="n">
+      <c r="J164">
         <v>0.3656303272432537</v>
       </c>
-      <c r="K164" t="n">
+      <c r="K164">
         <v>0.3656303272432537</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:11">
+      <c r="A165" s="2">
         <v>44470</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>75.77999877929688</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>76.15000152587891</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>75.76000213623047</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>75.83999633789062</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>75.15583801269531</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>14300</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H165">
         <v>0.05921784852135192</v>
       </c>
-      <c r="I165" t="n">
+      <c r="I165">
         <v>0.04871276318186153</v>
       </c>
-      <c r="J165" t="n">
+      <c r="J165">
         <v>0.4481573015980427</v>
       </c>
-      <c r="K165" t="n">
+      <c r="K165">
         <v>0.4481573015980427</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:11">
+      <c r="A166" s="2">
         <v>44501</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>76.01000213623047</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>76.29000091552734</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>74.66000366210938</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>75.19999694824219</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>74.5216064453125</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>112900</v>
       </c>
-      <c r="H166" t="n">
+      <c r="H166">
         <v>-0.008438810925003759</v>
       </c>
-      <c r="I166" t="n">
+      <c r="I166">
         <v>0.04811206832568148</v>
       </c>
-      <c r="J166" t="n">
+      <c r="J166">
         <v>0.2778249600348062</v>
       </c>
-      <c r="K166" t="n">
+      <c r="K166">
         <v>0.2778249600348062</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:11">
+      <c r="A167" s="2">
         <v>44531</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>77.98000335693359</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>78.18000030517578</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>77.69999694824219</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>77.90000152587891</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>77.90000152587891</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>22700</v>
       </c>
-      <c r="H167" t="n">
+      <c r="H167">
         <v>0.03590431764904256</v>
       </c>
-      <c r="I167" t="n">
+      <c r="I167">
         <v>0.0479808820928572</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J167">
         <v>0.215099060743118</v>
       </c>
-      <c r="K167" t="n">
+      <c r="K167">
         <v>0.215099060743118</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:11">
+      <c r="A168" s="2">
         <v>44562</v>
       </c>
-      <c r="B168" t="n">
-        <v>79.41999816894531</v>
-      </c>
-      <c r="C168" t="n">
-        <v>79.29869842529297</v>
-      </c>
-      <c r="D168" t="n">
-        <v>78.55999755859375</v>
-      </c>
-      <c r="E168" t="n">
-        <v>78.55999755859375</v>
-      </c>
-      <c r="F168" t="n">
-        <v>78.55999755859375</v>
-      </c>
-      <c r="G168" t="n">
-        <v>3952</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0.008472349419602843</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.0476659691732121</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.2298058272545305</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.2298058272545305</v>
+      <c r="B168">
+        <v>76.62000274658203</v>
+      </c>
+      <c r="C168">
+        <v>76.48549652099609</v>
+      </c>
+      <c r="D168">
+        <v>75.85720062255859</v>
+      </c>
+      <c r="E168">
+        <v>75.85720062255859</v>
+      </c>
+      <c r="F168">
+        <v>75.85720062255859</v>
+      </c>
+      <c r="G168">
+        <v>10980</v>
+      </c>
+      <c r="H168">
+        <v>-0.02622337436850597</v>
+      </c>
+      <c r="I168">
+        <v>0.04775806784181338</v>
+      </c>
+      <c r="J168">
+        <v>0.1874952935844831</v>
+      </c>
+      <c r="K168">
+        <v>0.1874952935844831</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>